--- a/Marketing/vcu.roomme.xlsx
+++ b/Marketing/vcu.roomme.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B301"/>
+  <dimension ref="A1:B328"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,7 +448,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>_kharbear_</t>
+          <t>mswendyknits</t>
         </is>
       </c>
       <c r="B2" t="b">
@@ -458,7 +458,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>zoeyy.yy</t>
+          <t>rmdrkm</t>
         </is>
       </c>
       <c r="B3" t="b">
@@ -468,7 +468,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>looking4kaylaa</t>
+          <t>vuu_marchingpanthers</t>
         </is>
       </c>
       <c r="B4" t="b">
@@ -478,7 +478,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>martha_tye_nice</t>
+          <t>andreapj77</t>
         </is>
       </c>
       <c r="B5" t="b">
@@ -488,7 +488,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>meredithrosenorris</t>
+          <t>treywasmade</t>
         </is>
       </c>
       <c r="B6" t="b">
@@ -498,7 +498,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>rmdrkm</t>
+          <t>getemtothechink</t>
         </is>
       </c>
       <c r="B7" t="b">
@@ -508,7 +508,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>abbyhr_</t>
+          <t>domlonia</t>
         </is>
       </c>
       <c r="B8" t="b">
@@ -518,7 +518,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>cambankss</t>
+          <t>_indigoday</t>
         </is>
       </c>
       <c r="B9" t="b">
@@ -528,7 +528,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>ascendrva</t>
+          <t>bonbobba</t>
         </is>
       </c>
       <c r="B10" t="b">
@@ -538,7 +538,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>saggch2023</t>
+          <t>muffykitty2004</t>
         </is>
       </c>
       <c r="B11" t="b">
@@ -548,7 +548,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>dorisrobertsinteriors</t>
+          <t>yana.exxe</t>
         </is>
       </c>
       <c r="B12" t="b">
@@ -558,7 +558,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>irelew1216</t>
+          <t>cassie_pepper1213</t>
         </is>
       </c>
       <c r="B13" t="b">
@@ -568,7 +568,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>sophia_z_c</t>
+          <t>iits_valentinaaa</t>
         </is>
       </c>
       <c r="B14" t="b">
@@ -578,7 +578,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>saeed__nafisi</t>
+          <t>aryankix101</t>
         </is>
       </c>
       <c r="B15" t="b">
@@ -588,7 +588,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>umm_its_kaniya</t>
+          <t>fred_rick05</t>
         </is>
       </c>
       <c r="B16" t="b">
@@ -598,7 +598,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>onepunchperc</t>
+          <t>bmadstaymad</t>
         </is>
       </c>
       <c r="B17" t="b">
@@ -608,7 +608,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>parrcss</t>
+          <t>therealaljones</t>
         </is>
       </c>
       <c r="B18" t="b">
@@ -618,7 +618,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>_mooonlight_98</t>
+          <t>ericgyurov224</t>
         </is>
       </c>
       <c r="B19" t="b">
@@ -628,7 +628,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>dani_elle.r</t>
+          <t>jerryn03</t>
         </is>
       </c>
       <c r="B20" t="b">
@@ -638,7 +638,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>_emilygeraldine_</t>
+          <t>hornet_dining</t>
         </is>
       </c>
       <c r="B21" t="b">
@@ -648,7 +648,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>macy.gibbs</t>
+          <t>softball__girl___03</t>
         </is>
       </c>
       <c r="B22" t="b">
@@ -658,7 +658,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>semeka2012</t>
+          <t>804tyee</t>
         </is>
       </c>
       <c r="B23" t="b">
@@ -668,7 +668,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>yana.exxe</t>
+          <t>michael.schricker</t>
         </is>
       </c>
       <c r="B24" t="b">
@@ -678,7 +678,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>halo_harmony</t>
+          <t>khushimonster</t>
         </is>
       </c>
       <c r="B25" t="b">
@@ -688,7 +688,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>tarynkei_</t>
+          <t>kallee.elisabeth</t>
         </is>
       </c>
       <c r="B26" t="b">
@@ -698,7 +698,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>crispino206</t>
+          <t>juiciestfruit_</t>
         </is>
       </c>
       <c r="B27" t="b">
@@ -708,7 +708,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>hrmanternach</t>
+          <t>lisazephyr</t>
         </is>
       </c>
       <c r="B28" t="b">
@@ -718,7 +718,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>adrixcolon</t>
+          <t>kphig.theta</t>
         </is>
       </c>
       <c r="B29" t="b">
@@ -728,7 +728,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>rhea.soma.15</t>
+          <t>rubytorres_04</t>
         </is>
       </c>
       <c r="B30" t="b">
@@ -738,7 +738,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>ann_chan1</t>
+          <t>michellet.nguyen</t>
         </is>
       </c>
       <c r="B31" t="b">
@@ -748,7 +748,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>alyssa._m_</t>
+          <t>spence.chap</t>
         </is>
       </c>
       <c r="B32" t="b">
@@ -758,7 +758,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>dona.francess</t>
+          <t>jdan_eastman</t>
         </is>
       </c>
       <c r="B33" t="b">
@@ -768,7 +768,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>vcurecwell</t>
+          <t>nywick_</t>
         </is>
       </c>
       <c r="B34" t="b">
@@ -778,7 +778,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>coonnnnoor</t>
+          <t>itsskotaa</t>
         </is>
       </c>
       <c r="B35" t="b">
@@ -788,7 +788,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>yswn_sa</t>
+          <t>lilheartbreakerkid</t>
         </is>
       </c>
       <c r="B36" t="b">
@@ -798,7 +798,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>calsgn_jager</t>
+          <t>amazznambitionx</t>
         </is>
       </c>
       <c r="B37" t="b">
@@ -808,7 +808,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>amunragodimperius</t>
+          <t>riley.donelan</t>
         </is>
       </c>
       <c r="B38" t="b">
@@ -818,7 +818,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>grace._.weaver</t>
+          <t>noodlegirl6</t>
         </is>
       </c>
       <c r="B39" t="b">
@@ -828,7 +828,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>judek.293</t>
+          <t>umm_its_kaniya</t>
         </is>
       </c>
       <c r="B40" t="b">
@@ -838,7 +838,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>natetheprez</t>
+          <t>altaria33</t>
         </is>
       </c>
       <c r="B41" t="b">
@@ -848,7 +848,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>cassie_pepper1213</t>
+          <t>amara._rhone</t>
         </is>
       </c>
       <c r="B42" t="b">
@@ -858,7 +858,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>c0lesw4gxd</t>
+          <t>doreyjayyy</t>
         </is>
       </c>
       <c r="B43" t="b">
@@ -868,7 +868,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>804tyee</t>
+          <t>emmadettra</t>
         </is>
       </c>
       <c r="B44" t="b">
@@ -878,7 +878,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>atomicaries</t>
+          <t>kreative_yoga_by_kanika</t>
         </is>
       </c>
       <c r="B45" t="b">
@@ -888,7 +888,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>shanedonjr</t>
+          <t>user83716189391</t>
         </is>
       </c>
       <c r="B46" t="b">
@@ -898,7 +898,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>ivy_starfish</t>
+          <t>rclarks74</t>
         </is>
       </c>
       <c r="B47" t="b">
@@ -908,7 +908,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>nywick_</t>
+          <t>malanijohnson07</t>
         </is>
       </c>
       <c r="B48" t="b">
@@ -918,7 +918,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>dee_hammam</t>
+          <t>nafisa.anjum_</t>
         </is>
       </c>
       <c r="B49" t="b">
@@ -928,7 +928,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>dielon._</t>
+          <t>pierce_cutler</t>
         </is>
       </c>
       <c r="B50" t="b">
@@ -938,7 +938,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>raavven_</t>
+          <t>olivia__0315</t>
         </is>
       </c>
       <c r="B51" t="b">
@@ -948,7 +948,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>inayahh_ali</t>
+          <t>jasinor</t>
         </is>
       </c>
       <c r="B52" t="b">
@@ -958,7 +958,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>joshwoodburn_</t>
+          <t>amy777dan</t>
         </is>
       </c>
       <c r="B53" t="b">
@@ -968,7 +968,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>riley.l.w.kerr</t>
+          <t>shotsforsinglemoms</t>
         </is>
       </c>
       <c r="B54" t="b">
@@ -978,7 +978,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>sel_kiss</t>
+          <t>thereallbutterfly</t>
         </is>
       </c>
       <c r="B55" t="b">
@@ -988,7 +988,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>sosa_fnatic_13</t>
+          <t>they.luv.manie</t>
         </is>
       </c>
       <c r="B56" t="b">
@@ -998,7 +998,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>its.cici.duhh</t>
+          <t>max_chan1005</t>
         </is>
       </c>
       <c r="B57" t="b">
@@ -1008,7 +1008,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>mnieves1771</t>
+          <t>isabella_w20</t>
         </is>
       </c>
       <c r="B58" t="b">
@@ -1018,7 +1018,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>milesorussell</t>
+          <t>molpratt</t>
         </is>
       </c>
       <c r="B59" t="b">
@@ -1028,7 +1028,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>itz.niyyahhh</t>
+          <t>_mooonlight_98</t>
         </is>
       </c>
       <c r="B60" t="b">
@@ -1038,7 +1038,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>nyaa6s</t>
+          <t>jasmineayad_</t>
         </is>
       </c>
       <c r="B61" t="b">
@@ -1048,1007 +1048,1007 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>__kyy.laa__</t>
+          <t>amya_mjz</t>
         </is>
       </c>
       <c r="B62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>huni_dymon</t>
+          <t>solememmaa</t>
         </is>
       </c>
       <c r="B63" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>laurnnicolee</t>
+          <t>jer.emy.john</t>
         </is>
       </c>
       <c r="B64" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>daniel_zerrusen</t>
+          <t>sitasart</t>
         </is>
       </c>
       <c r="B65" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>nocapdavid</t>
+          <t>amanda_sasso_</t>
         </is>
       </c>
       <c r="B66" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>swiggwolla</t>
+          <t>goonyayo907_</t>
         </is>
       </c>
       <c r="B67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>phatlas03</t>
+          <t>thatpunkkenny26</t>
         </is>
       </c>
       <c r="B68" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>casswelch</t>
+          <t>goof.ygirlwonder10002019</t>
         </is>
       </c>
       <c r="B69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>esenonie</t>
+          <t>parkeramirato</t>
         </is>
       </c>
       <c r="B70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>im_flightless_</t>
+          <t>ari__bby</t>
         </is>
       </c>
       <c r="B71" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>ameradil5174</t>
+          <t>cabbagememorial</t>
         </is>
       </c>
       <c r="B72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>andreapj77</t>
+          <t>bogdan_vrl</t>
         </is>
       </c>
       <c r="B73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>_mollyyrose_</t>
+          <t>bandmom2022</t>
         </is>
       </c>
       <c r="B74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>goof.ygirlwonder10002019</t>
+          <t>bengpftw04</t>
         </is>
       </c>
       <c r="B75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>viv.hughess</t>
+          <t>vcu_dining</t>
         </is>
       </c>
       <c r="B76" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>dekergreyson</t>
+          <t>trinitykamari</t>
         </is>
       </c>
       <c r="B77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>emmadettra</t>
+          <t>marymisbell</t>
         </is>
       </c>
       <c r="B78" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>madeleine.isabelle_</t>
+          <t>asia_willl</t>
         </is>
       </c>
       <c r="B79" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>ed_son_le</t>
+          <t>floyd_jaden</t>
         </is>
       </c>
       <c r="B80" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>merrynisbell</t>
+          <t>artbymeb</t>
         </is>
       </c>
       <c r="B81" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>evalinarendon</t>
+          <t>ritikamanthena</t>
         </is>
       </c>
       <c r="B82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>jlevyy</t>
+          <t>_m4ymay</t>
         </is>
       </c>
       <c r="B83" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>max_chan1005</t>
+          <t>huni_dymon</t>
         </is>
       </c>
       <c r="B84" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>averyelewis</t>
+          <t>katiepba</t>
         </is>
       </c>
       <c r="B85" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>bryan_carroll81</t>
+          <t>seantyoo</t>
         </is>
       </c>
       <c r="B86" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>rachelwek217</t>
+          <t>jonnytannnn</t>
         </is>
       </c>
       <c r="B87" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>madmath3w</t>
+          <t>sriya_jakka</t>
         </is>
       </c>
       <c r="B88" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>olivia.reginaaho</t>
+          <t>cmmillier</t>
         </is>
       </c>
       <c r="B89" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>bengpftw04</t>
+          <t>kuyaerth</t>
         </is>
       </c>
       <c r="B90" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>peoplearetheworse</t>
+          <t>chris.kekoa</t>
         </is>
       </c>
       <c r="B91" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>jdan_eastman</t>
+          <t>dalton.jenkins_</t>
         </is>
       </c>
       <c r="B92" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>jawon999</t>
+          <t>beepboop330</t>
         </is>
       </c>
       <c r="B93" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>jada_yah</t>
+          <t>theerealcherish</t>
         </is>
       </c>
       <c r="B94" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>bogdan_vrl</t>
+          <t>ishmaaub</t>
         </is>
       </c>
       <c r="B95" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>angellaangella47</t>
+          <t>harebearss</t>
         </is>
       </c>
       <c r="B96" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>jannah_fuzzy</t>
+          <t>isabella_wln</t>
         </is>
       </c>
       <c r="B97" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>ajeremiahreynolds</t>
+          <t>olivia.reginaaho</t>
         </is>
       </c>
       <c r="B98" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>slay.dan</t>
+          <t>me.lny</t>
         </is>
       </c>
       <c r="B99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>_.vik.t0ri.a.__</t>
+          <t>holyspiritamunragod</t>
         </is>
       </c>
       <c r="B100" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>runningmom77</t>
+          <t>leakeforhenrico</t>
         </is>
       </c>
       <c r="B101" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>eyssadartist</t>
+          <t>lunaa___22</t>
         </is>
       </c>
       <c r="B102" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>sonniereva</t>
+          <t>kwamee.s_</t>
         </is>
       </c>
       <c r="B103" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>therealest4evr</t>
+          <t>averyelewis</t>
         </is>
       </c>
       <c r="B104" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>olivia__0315</t>
+          <t>debbiedooops</t>
         </is>
       </c>
       <c r="B105" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>gavinstandish</t>
+          <t>weaver_342</t>
         </is>
       </c>
       <c r="B106" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>nico.lelilano</t>
+          <t>amilmom1</t>
         </is>
       </c>
       <c r="B107" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>tamere_briley</t>
+          <t>pariiss.__</t>
         </is>
       </c>
       <c r="B108" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>cindylinoo</t>
+          <t>lalisamanobal_nyein221108</t>
         </is>
       </c>
       <c r="B109" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>chessie_cicc</t>
+          <t>whotfismahfed</t>
         </is>
       </c>
       <c r="B110" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>jcm.ire</t>
+          <t>semeka2012</t>
         </is>
       </c>
       <c r="B111" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>mariah.anevia</t>
+          <t>cassandra.vanessac</t>
         </is>
       </c>
       <c r="B112" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>xuziie</t>
+          <t>kyle_lesko_</t>
         </is>
       </c>
       <c r="B113" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>willonamartin</t>
+          <t>maxcolpo</t>
         </is>
       </c>
       <c r="B114" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>jakadachristmas</t>
+          <t>jcm.ire</t>
         </is>
       </c>
       <c r="B115" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>169willy</t>
+          <t>haleymarbury</t>
         </is>
       </c>
       <c r="B116" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>swarachokshi</t>
+          <t>vcurecwell</t>
         </is>
       </c>
       <c r="B117" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>marytaylordawson</t>
+          <t>sarabthz</t>
         </is>
       </c>
       <c r="B118" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>tuan.hoang00</t>
+          <t>zaria.alana_</t>
         </is>
       </c>
       <c r="B119" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>ethan.aguilar_</t>
+          <t>jxstnutty</t>
         </is>
       </c>
       <c r="B120" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>young.naeem</t>
+          <t>janky_taay</t>
         </is>
       </c>
       <c r="B121" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>devinostulano</t>
+          <t>therealest4evr</t>
         </is>
       </c>
       <c r="B122" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>haley.elizabeth._</t>
+          <t>pontehaa</t>
         </is>
       </c>
       <c r="B123" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>dr.sanaqarawi</t>
+          <t>inayahh_ali</t>
         </is>
       </c>
       <c r="B124" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>wend.dyy_</t>
+          <t>kennedyypotterr</t>
         </is>
       </c>
       <c r="B125" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>iheartbrycie</t>
+          <t>yea.nickk</t>
         </is>
       </c>
       <c r="B126" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>bronzerat</t>
+          <t>rani_sangha_</t>
         </is>
       </c>
       <c r="B127" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>lilheartbreakerkid</t>
+          <t>eva.mcmullan</t>
         </is>
       </c>
       <c r="B128" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>jpcurbelo</t>
+          <t>christian.selken</t>
         </is>
       </c>
       <c r="B129" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>james.watson.7902</t>
+          <t>jjmejiasl</t>
         </is>
       </c>
       <c r="B130" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>carrolinaaperez</t>
+          <t>benderj5</t>
         </is>
       </c>
       <c r="B131" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>sherbert.420</t>
+          <t>theyneedryan</t>
         </is>
       </c>
       <c r="B132" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>mcgeppi</t>
+          <t>aurora_borealis234</t>
         </is>
       </c>
       <c r="B133" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>reflottie</t>
+          <t>nylaaylssa</t>
         </is>
       </c>
       <c r="B134" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>evolution9673</t>
+          <t>b1ue45_1likeanime</t>
         </is>
       </c>
       <c r="B135" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>_ninaaa.t</t>
+          <t>willonamartin</t>
         </is>
       </c>
       <c r="B136" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>meowmeowdev</t>
+          <t>_katepapers._</t>
         </is>
       </c>
       <c r="B137" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>hellokittylover_._</t>
+          <t>irelew1216</t>
         </is>
       </c>
       <c r="B138" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>jamieashjian</t>
+          <t>jamesw12276</t>
         </is>
       </c>
       <c r="B139" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>jakmg3</t>
+          <t>va_na8tive</t>
         </is>
       </c>
       <c r="B140" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>jarr_bear86</t>
+          <t>nishaajis1am</t>
         </is>
       </c>
       <c r="B141" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>jer.emy.john</t>
+          <t>1_btyfl_flwr</t>
         </is>
       </c>
       <c r="B142" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>ranaarts</t>
+          <t>maddie_leitch</t>
         </is>
       </c>
       <c r="B143" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>annaperdue_</t>
+          <t>monshayk__</t>
         </is>
       </c>
       <c r="B144" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>joshua.robs</t>
+          <t>daniel_zerrusen</t>
         </is>
       </c>
       <c r="B145" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>kadyner1</t>
+          <t>peoplearetheworse</t>
         </is>
       </c>
       <c r="B146" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>only.abi</t>
+          <t>_.tchampion._</t>
         </is>
       </c>
       <c r="B147" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>bridget_nm_</t>
+          <t>bigc8500</t>
         </is>
       </c>
       <c r="B148" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>maddie_leitch</t>
+          <t>jeannetterrivera</t>
         </is>
       </c>
       <c r="B149" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>danielleperschetz</t>
+          <t>kppate99</t>
         </is>
       </c>
       <c r="B150" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>bellla_bue</t>
+          <t>meowmeowdev</t>
         </is>
       </c>
       <c r="B151" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>zoey.jane03</t>
+          <t>ascendrva</t>
         </is>
       </c>
       <c r="B152" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>zcrawley24</t>
+          <t>myduchess2</t>
         </is>
       </c>
       <c r="B153" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>snehagatuku</t>
+          <t>dul_is_tired</t>
         </is>
       </c>
       <c r="B154" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>x.odilia.x</t>
+          <t>sulwee56</t>
         </is>
       </c>
       <c r="B155" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>bandmom2022</t>
+          <t>cambankss</t>
         </is>
       </c>
       <c r="B156" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>nnoah.thomas</t>
+          <t>the_ikon_kalani</t>
         </is>
       </c>
       <c r="B157" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>jacoboceballos_</t>
+          <t>charlespsychos</t>
         </is>
       </c>
       <c r="B158" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>shotsforsinglemoms</t>
+          <t>devinostulano</t>
         </is>
       </c>
       <c r="B159" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>rushi629</t>
+          <t>jdef22</t>
         </is>
       </c>
       <c r="B160" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>idashapero</t>
+          <t>jawon999</t>
         </is>
       </c>
       <c r="B161" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>dannysebas10</t>
+          <t>lauren_ebyy</t>
         </is>
       </c>
       <c r="B162" t="b">
@@ -2058,7 +2058,7 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>di3lon</t>
+          <t>ameradil5174</t>
         </is>
       </c>
       <c r="B163" t="b">
@@ -2068,7 +2068,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>kaylenlange</t>
+          <t>monika.elizabethh</t>
         </is>
       </c>
       <c r="B164" t="b">
@@ -2078,7 +2078,7 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>cassandra.vanessac</t>
+          <t>linds.dolan</t>
         </is>
       </c>
       <c r="B165" t="b">
@@ -2088,7 +2088,7 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>emmm045</t>
+          <t>dielon._</t>
         </is>
       </c>
       <c r="B166" t="b">
@@ -2098,7 +2098,7 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>sweetbeesauce</t>
+          <t>sean_2.72</t>
         </is>
       </c>
       <c r="B167" t="b">
@@ -2108,7 +2108,7 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>jdgodward</t>
+          <t>mistpham</t>
         </is>
       </c>
       <c r="B168" t="b">
@@ -2118,7 +2118,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>mswendyknits</t>
+          <t>riley.l.w.kerr</t>
         </is>
       </c>
       <c r="B169" t="b">
@@ -2128,7 +2128,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>saharahayes515</t>
+          <t>emmatoggia</t>
         </is>
       </c>
       <c r="B170" t="b">
@@ -2138,7 +2138,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>sophiadeldonna</t>
+          <t>kungfukenny04</t>
         </is>
       </c>
       <c r="B171" t="b">
@@ -2148,7 +2148,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>kashed.out.kell</t>
+          <t>abby_chue</t>
         </is>
       </c>
       <c r="B172" t="b">
@@ -2158,7 +2158,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>jeannetterrivera</t>
+          <t>pablo_ff504</t>
         </is>
       </c>
       <c r="B173" t="b">
@@ -2168,7 +2168,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>mentionedblue</t>
+          <t>jackschwartzberg25</t>
         </is>
       </c>
       <c r="B174" t="b">
@@ -2178,7 +2178,7 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>glosssy.t</t>
+          <t>paolaaartero</t>
         </is>
       </c>
       <c r="B175" t="b">
@@ -2188,7 +2188,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>1_btyfl_flwr</t>
+          <t>glwardlow</t>
         </is>
       </c>
       <c r="B176" t="b">
@@ -2198,7 +2198,7 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>christian.selken</t>
+          <t>rushi629</t>
         </is>
       </c>
       <c r="B177" t="b">
@@ -2208,7 +2208,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>tomakiroll</t>
+          <t>ismaelmonroy03</t>
         </is>
       </c>
       <c r="B178" t="b">
@@ -2218,7 +2218,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>gokul_chaluvadi</t>
+          <t>judek.293</t>
         </is>
       </c>
       <c r="B179" t="b">
@@ -2228,7 +2228,7 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>dar.haadi</t>
+          <t>wend.dyy_</t>
         </is>
       </c>
       <c r="B180" t="b">
@@ -2238,7 +2238,7 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>therealaljones</t>
+          <t>elenoredeluna</t>
         </is>
       </c>
       <c r="B181" t="b">
@@ -2248,7 +2248,7 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>bjasper96ill</t>
+          <t>lee.oura</t>
         </is>
       </c>
       <c r="B182" t="b">
@@ -2258,7 +2258,7 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>hornet_dining</t>
+          <t>courtney.lebow</t>
         </is>
       </c>
       <c r="B183" t="b">
@@ -2268,7 +2268,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>thereallbutterfly</t>
+          <t>maru_dlv</t>
         </is>
       </c>
       <c r="B184" t="b">
@@ -2278,7 +2278,7 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>sereen_haddad_</t>
+          <t>futurevisionariesvcu</t>
         </is>
       </c>
       <c r="B185" t="b">
@@ -2288,7 +2288,7 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>nanii.mv</t>
+          <t>kashed.out.kell</t>
         </is>
       </c>
       <c r="B186" t="b">
@@ -2298,7 +2298,7 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>_katepapers._</t>
+          <t>vcuchristians</t>
         </is>
       </c>
       <c r="B187" t="b">
@@ -2308,7 +2308,7 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>pomegranatedisco</t>
+          <t>c0lesw4gxd</t>
         </is>
       </c>
       <c r="B188" t="b">
@@ -2318,7 +2318,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>gagan_upmerch</t>
+          <t>jaso.nlopez89</t>
         </is>
       </c>
       <c r="B189" t="b">
@@ -2328,7 +2328,7 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>hayden__dove</t>
+          <t>seeley8833</t>
         </is>
       </c>
       <c r="B190" t="b">
@@ -2338,7 +2338,7 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>vcu_soed</t>
+          <t>dr.sanaqarawi</t>
         </is>
       </c>
       <c r="B191" t="b">
@@ -2348,7 +2348,7 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>haleyyhottman</t>
+          <t>sophieee_kings</t>
         </is>
       </c>
       <c r="B192" t="b">
@@ -2358,7 +2358,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>kukiye_at</t>
+          <t>_nia.simone04_</t>
         </is>
       </c>
       <c r="B193" t="b">
@@ -2368,7 +2368,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>murell.s</t>
+          <t>_jaymohb</t>
         </is>
       </c>
       <c r="B194" t="b">
@@ -2378,7 +2378,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>sitasart</t>
+          <t>swiggwolla</t>
         </is>
       </c>
       <c r="B195" t="b">
@@ -2388,7 +2388,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>elliannafeher</t>
+          <t>dani_elle.r</t>
         </is>
       </c>
       <c r="B196" t="b">
@@ -2398,7 +2398,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>ericgyurov224</t>
+          <t>misthi.choksi</t>
         </is>
       </c>
       <c r="B197" t="b">
@@ -2408,7 +2408,7 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>genny.wenny04</t>
+          <t>trmpeta</t>
         </is>
       </c>
       <c r="B198" t="b">
@@ -2418,7 +2418,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>mel.urq</t>
+          <t>hanayaghii</t>
         </is>
       </c>
       <c r="B199" t="b">
@@ -2428,7 +2428,7 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>dayeatsoup</t>
+          <t>cona_stokes</t>
         </is>
       </c>
       <c r="B200" t="b">
@@ -2438,7 +2438,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>papaskapa</t>
+          <t>marcelino_megaly799</t>
         </is>
       </c>
       <c r="B201" t="b">
@@ -2448,7 +2448,7 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>eva.mcmullan</t>
+          <t>liliyhdz</t>
         </is>
       </c>
       <c r="B202" t="b">
@@ -2458,7 +2458,7 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>goonyayo907_</t>
+          <t>qurantatum</t>
         </is>
       </c>
       <c r="B203" t="b">
@@ -2468,7 +2468,7 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>iluvteej</t>
+          <t>kaylenlange</t>
         </is>
       </c>
       <c r="B204" t="b">
@@ -2478,7 +2478,7 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>mra__04</t>
+          <t>_yvon_d</t>
         </is>
       </c>
       <c r="B205" t="b">
@@ -2488,7 +2488,7 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>jaso.nlopez89</t>
+          <t>whitegurlt</t>
         </is>
       </c>
       <c r="B206" t="b">
@@ -2498,7 +2498,7 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>brightness2010</t>
+          <t>sophiadeldonna</t>
         </is>
       </c>
       <c r="B207" t="b">
@@ -2508,7 +2508,7 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>kmjones_xo</t>
+          <t>joshwoodburn_</t>
         </is>
       </c>
       <c r="B208" t="b">
@@ -2518,7 +2518,7 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>malanijohnson07</t>
+          <t>ivy_starfish</t>
         </is>
       </c>
       <c r="B209" t="b">
@@ -2528,7 +2528,7 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>icy_keneah</t>
+          <t>mizzy10316</t>
         </is>
       </c>
       <c r="B210" t="b">
@@ -2538,7 +2538,7 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>hburke1010</t>
+          <t>hanni_nj2</t>
         </is>
       </c>
       <c r="B211" t="b">
@@ -2548,7 +2548,7 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>therealziona</t>
+          <t>xuziie</t>
         </is>
       </c>
       <c r="B212" t="b">
@@ -2558,7 +2558,7 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>j.alexross</t>
+          <t>l.v.deuce</t>
         </is>
       </c>
       <c r="B213" t="b">
@@ -2568,7 +2568,7 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>misthi.choksi</t>
+          <t>heidi_e_marle</t>
         </is>
       </c>
       <c r="B214" t="b">
@@ -2578,7 +2578,7 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>samaraaturi</t>
+          <t>justinzchan</t>
         </is>
       </c>
       <c r="B215" t="b">
@@ -2598,7 +2598,7 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>parkeramirato</t>
+          <t>_taylortaytay_</t>
         </is>
       </c>
       <c r="B217" t="b">
@@ -2608,7 +2608,7 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>not_ashtonnn</t>
+          <t>iheartbrycie</t>
         </is>
       </c>
       <c r="B218" t="b">
@@ -2618,7 +2618,7 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>__chryssa__wilson__</t>
+          <t>evalinarendon</t>
         </is>
       </c>
       <c r="B219" t="b">
@@ -2628,7 +2628,7 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>fake_cubby1427</t>
+          <t>vinatak_15</t>
         </is>
       </c>
       <c r="B220" t="b">
@@ -2638,7 +2638,7 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>they.luv.manie</t>
+          <t>j.alexross</t>
         </is>
       </c>
       <c r="B221" t="b">
@@ -2648,7 +2648,7 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>finestniggyjay</t>
+          <t>avrie_p</t>
         </is>
       </c>
       <c r="B222" t="b">
@@ -2658,7 +2658,7 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>allboutjaclyn</t>
+          <t>saeed__nafisi</t>
         </is>
       </c>
       <c r="B223" t="b">
@@ -2668,7 +2668,7 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>kphig.theta</t>
+          <t>krsully7</t>
         </is>
       </c>
       <c r="B224" t="b">
@@ -2678,7 +2678,7 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>ari__bby</t>
+          <t>jocelyn_clary2</t>
         </is>
       </c>
       <c r="B225" t="b">
@@ -2688,7 +2688,7 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>thatpunkkenny26</t>
+          <t>jadaluvzuuu</t>
         </is>
       </c>
       <c r="B226" t="b">
@@ -2698,7 +2698,7 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>lenaelliott23</t>
+          <t>mhcva</t>
         </is>
       </c>
       <c r="B227" t="b">
@@ -2708,7 +2708,7 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>elliebbbeee</t>
+          <t>nocapdavid</t>
         </is>
       </c>
       <c r="B228" t="b">
@@ -2718,7 +2718,7 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>itsskotaa</t>
+          <t>datgoatb</t>
         </is>
       </c>
       <c r="B229" t="b">
@@ -2738,7 +2738,7 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>suvali.m</t>
+          <t>allboutjaclyn</t>
         </is>
       </c>
       <c r="B231" t="b">
@@ -2748,7 +2748,7 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>dalton.jenkins_</t>
+          <t>sweetbeesauce</t>
         </is>
       </c>
       <c r="B232" t="b">
@@ -2758,7 +2758,7 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>gursimar_dhaliwal19</t>
+          <t>evolution9673</t>
         </is>
       </c>
       <c r="B233" t="b">
@@ -2768,7 +2768,7 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>domlonia</t>
+          <t>emersinnnnn</t>
         </is>
       </c>
       <c r="B234" t="b">
@@ -2778,7 +2778,7 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>deann.22</t>
+          <t>julietcastle23</t>
         </is>
       </c>
       <c r="B235" t="b">
@@ -2788,7 +2788,7 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>inotobe_r</t>
+          <t>brightness2010</t>
         </is>
       </c>
       <c r="B236" t="b">
@@ -2798,7 +2798,7 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>monika.elizabethh</t>
+          <t>looking4kaylaa</t>
         </is>
       </c>
       <c r="B237" t="b">
@@ -2808,7 +2808,7 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>cosmicnxxdlesarchive</t>
+          <t>cache.3.bentley</t>
         </is>
       </c>
       <c r="B238" t="b">
@@ -2818,7 +2818,7 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>mrsmcboyle</t>
+          <t>_ksarfo</t>
         </is>
       </c>
       <c r="B239" t="b">
@@ -2828,7 +2828,7 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>theyluvv.myra</t>
+          <t>_tired.ty_</t>
         </is>
       </c>
       <c r="B240" t="b">
@@ -2838,7 +2838,7 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>john_lafish</t>
+          <t>lenaelliott23</t>
         </is>
       </c>
       <c r="B241" t="b">
@@ -2848,7 +2848,7 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>hannahbinsley02</t>
+          <t>nscfluser1</t>
         </is>
       </c>
       <c r="B242" t="b">
@@ -2858,7 +2858,7 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>lizzie_dunn_</t>
+          <t>mvpnaya</t>
         </is>
       </c>
       <c r="B243" t="b">
@@ -2868,7 +2868,7 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>nigg_ablue</t>
+          <t>slz.adrian</t>
         </is>
       </c>
       <c r="B244" t="b">
@@ -2878,7 +2878,7 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>henryltle</t>
+          <t>gokul_chaluvadi</t>
         </is>
       </c>
       <c r="B245" t="b">
@@ -2888,7 +2888,7 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>theylove.niyya</t>
+          <t>lukepinneo</t>
         </is>
       </c>
       <c r="B246" t="b">
@@ -2898,7 +2898,7 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>christianmomrunner</t>
+          <t>mel.urq</t>
         </is>
       </c>
       <c r="B247" t="b">
@@ -2908,7 +2908,7 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>madeleine_long2704</t>
+          <t>k._s.jhhhg</t>
         </is>
       </c>
       <c r="B248" t="b">
@@ -2918,7 +2918,7 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>cagaleas</t>
+          <t>dar.haadi</t>
         </is>
       </c>
       <c r="B249" t="b">
@@ -2928,7 +2928,7 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>liliyhdz</t>
+          <t>amaaayya_</t>
         </is>
       </c>
       <c r="B250" t="b">
@@ -2938,7 +2938,7 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>mirandafriedland</t>
+          <t>danmoss17</t>
         </is>
       </c>
       <c r="B251" t="b">
@@ -2948,7 +2948,7 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>aravindkalipatnapu</t>
+          <t>leana__03</t>
         </is>
       </c>
       <c r="B252" t="b">
@@ -2958,7 +2958,7 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>sean_2.72</t>
+          <t>sophiaverhaeghe</t>
         </is>
       </c>
       <c r="B253" t="b">
@@ -2968,7 +2968,7 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>artbymeb</t>
+          <t>dayeatsoup</t>
         </is>
       </c>
       <c r="B254" t="b">
@@ -2978,7 +2978,7 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>maru_dlv</t>
+          <t>ayatelshafii</t>
         </is>
       </c>
       <c r="B255" t="b">
@@ -2988,7 +2988,7 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>floyd_jaden</t>
+          <t>payten.broderick</t>
         </is>
       </c>
       <c r="B256" t="b">
@@ -2998,7 +2998,7 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>john_milleriii</t>
+          <t>swarachokshi</t>
         </is>
       </c>
       <c r="B257" t="b">
@@ -3008,7 +3008,7 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>jasinor</t>
+          <t>tarynkei_</t>
         </is>
       </c>
       <c r="B258" t="b">
@@ -3018,7 +3018,7 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>amarelgamri</t>
+          <t>reaaaa._baby</t>
         </is>
       </c>
       <c r="B259" t="b">
@@ -3028,7 +3028,7 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>kuyaerth</t>
+          <t>amoyer03</t>
         </is>
       </c>
       <c r="B260" t="b">
@@ -3038,7 +3038,7 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>weaver_342</t>
+          <t>elijahlister04</t>
         </is>
       </c>
       <c r="B261" t="b">
@@ -3048,7 +3048,7 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>b.a.y.l.o.r.2</t>
+          <t>mrsmcboyle</t>
         </is>
       </c>
       <c r="B262" t="b">
@@ -3058,7 +3058,7 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>yea.nickk</t>
+          <t>charity.cyril_</t>
         </is>
       </c>
       <c r="B263" t="b">
@@ -3068,7 +3068,7 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>jasmineayad_</t>
+          <t>gavinstandish</t>
         </is>
       </c>
       <c r="B264" t="b">
@@ -3078,7 +3078,7 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>sriya_jakka</t>
+          <t>alexbrown715</t>
         </is>
       </c>
       <c r="B265" t="b">
@@ -3088,7 +3088,7 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>jadyn_raee</t>
+          <t>_richardho_</t>
         </is>
       </c>
       <c r="B266" t="b">
@@ -3098,7 +3098,7 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>_jaymohb</t>
+          <t>hannahbinsley02</t>
         </is>
       </c>
       <c r="B267" t="b">
@@ -3108,7 +3108,7 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>jen_shepherd10</t>
+          <t>calsgn_jager</t>
         </is>
       </c>
       <c r="B268" t="b">
@@ -3118,7 +3118,7 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>annabel_24carrotmagic</t>
+          <t>im_flightless_</t>
         </is>
       </c>
       <c r="B269" t="b">
@@ -3128,7 +3128,7 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>_tired.ty_</t>
+          <t>james.watson.7902</t>
         </is>
       </c>
       <c r="B270" t="b">
@@ -3138,7 +3138,7 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>cele333stial</t>
+          <t>sharonzeballoss</t>
         </is>
       </c>
       <c r="B271" t="b">
@@ -3148,7 +3148,7 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>gaganteja04</t>
+          <t>gursimar_dhaliwal19</t>
         </is>
       </c>
       <c r="B272" t="b">
@@ -3158,7 +3158,7 @@
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>kppate99</t>
+          <t>dolleanb</t>
         </is>
       </c>
       <c r="B273" t="b">
@@ -3168,7 +3168,7 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>r.z.wilson</t>
+          <t>hburke1010</t>
         </is>
       </c>
       <c r="B274" t="b">
@@ -3178,7 +3178,7 @@
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>cecilia.marielle</t>
+          <t>_kharbear_</t>
         </is>
       </c>
       <c r="B275" t="b">
@@ -3188,7 +3188,7 @@
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>charlespsychos</t>
+          <t>deborahsepulveda19</t>
         </is>
       </c>
       <c r="B276" t="b">
@@ -3198,7 +3198,7 @@
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>bluepeony.18</t>
+          <t>rexielawrence</t>
         </is>
       </c>
       <c r="B277" t="b">
@@ -3208,7 +3208,7 @@
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>isabella_w20</t>
+          <t>ashley.noeliaa</t>
         </is>
       </c>
       <c r="B278" t="b">
@@ -3218,7 +3218,7 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>amoyer03</t>
+          <t>__chryssa__wilson__</t>
         </is>
       </c>
       <c r="B279" t="b">
@@ -3228,7 +3228,7 @@
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>bigc8500</t>
+          <t>andeeznuutz</t>
         </is>
       </c>
       <c r="B280" t="b">
@@ -3238,7 +3238,7 @@
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>elijahlister04</t>
+          <t>quinton_.dowell</t>
         </is>
       </c>
       <c r="B281" t="b">
@@ -3248,7 +3248,7 @@
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>_taylortaytay_</t>
+          <t>vcutrinkets</t>
         </is>
       </c>
       <c r="B282" t="b">
@@ -3258,7 +3258,7 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>linds.dolan</t>
+          <t>shanayaaakhannnn</t>
         </is>
       </c>
       <c r="B283" t="b">
@@ -3268,7 +3268,7 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>paytonmullaly</t>
+          <t>suvali.m</t>
         </is>
       </c>
       <c r="B284" t="b">
@@ -3278,7 +3278,7 @@
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>qurantatum</t>
+          <t>emmygarciia</t>
         </is>
       </c>
       <c r="B285" t="b">
@@ -3288,7 +3288,7 @@
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>emmatoggia</t>
+          <t>prento_bean</t>
         </is>
       </c>
       <c r="B286" t="b">
@@ -3298,7 +3298,7 @@
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>sophiaverhaeghe</t>
+          <t>hellokittylover_._</t>
         </is>
       </c>
       <c r="B287" t="b">
@@ -3308,7 +3308,7 @@
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>beepboop330</t>
+          <t>madmath3w</t>
         </is>
       </c>
       <c r="B288" t="b">
@@ -3318,7 +3318,7 @@
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>ritikamanthena</t>
+          <t>amarelgamri</t>
         </is>
       </c>
       <c r="B289" t="b">
@@ -3328,7 +3328,7 @@
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>lauren_ebyy</t>
+          <t>shendrickson525</t>
         </is>
       </c>
       <c r="B290" t="b">
@@ -3338,7 +3338,7 @@
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>raylyndelmundo</t>
+          <t>jlevyy</t>
         </is>
       </c>
       <c r="B291" t="b">
@@ -3348,7 +3348,7 @@
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>joekat2728</t>
+          <t>cele333stial</t>
         </is>
       </c>
       <c r="B292" t="b">
@@ -3358,7 +3358,7 @@
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>polaroid88insta</t>
+          <t>_mydanadeem</t>
         </is>
       </c>
       <c r="B293" t="b">
@@ -3368,7 +3368,7 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>djpwnage</t>
+          <t>_alexisserbin_</t>
         </is>
       </c>
       <c r="B294" t="b">
@@ -3378,7 +3378,7 @@
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>vuu_marchingpanthers</t>
+          <t>3lle.l</t>
         </is>
       </c>
       <c r="B295" t="b">
@@ -3388,7 +3388,7 @@
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>jadaluvzuuu</t>
+          <t>artbykimpkim</t>
         </is>
       </c>
       <c r="B296" t="b">
@@ -3398,7 +3398,7 @@
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>a.shiah</t>
+          <t>jarr_bear86</t>
         </is>
       </c>
       <c r="B297" t="b">
@@ -3408,7 +3408,7 @@
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>deborahsepulveda19</t>
+          <t>peytenxofawz34</t>
         </is>
       </c>
       <c r="B298" t="b">
@@ -3418,7 +3418,7 @@
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>_moosh_moosh_</t>
+          <t>its_mandy_ba3</t>
         </is>
       </c>
       <c r="B299" t="b">
@@ -3428,7 +3428,7 @@
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>peytenxofawz34</t>
+          <t>m1lk_dud</t>
         </is>
       </c>
       <c r="B300" t="b">
@@ -3438,10 +3438,280 @@
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>rclarks74</t>
+          <t>carrolinaaperez</t>
         </is>
       </c>
       <c r="B301" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>asyajl11</t>
+        </is>
+      </c>
+      <c r="B302" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>nico.lelilano</t>
+        </is>
+      </c>
+      <c r="B303" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>saggch2023</t>
+        </is>
+      </c>
+      <c r="B304" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>scott.gorilla</t>
+        </is>
+      </c>
+      <c r="B305" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>http.nuckols</t>
+        </is>
+      </c>
+      <c r="B306" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>samantha_smith_67_04</t>
+        </is>
+      </c>
+      <c r="B307" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>yaa_harriii</t>
+        </is>
+      </c>
+      <c r="B308" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>b.a.y.l.o.r.2</t>
+        </is>
+      </c>
+      <c r="B309" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>abbyhr_</t>
+        </is>
+      </c>
+      <c r="B310" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>ddgodward</t>
+        </is>
+      </c>
+      <c r="B311" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>emily_bridgit</t>
+        </is>
+      </c>
+      <c r="B312" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>phatlas03</t>
+        </is>
+      </c>
+      <c r="B313" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>mariah.anevia</t>
+        </is>
+      </c>
+      <c r="B314" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>nigg_ablue</t>
+        </is>
+      </c>
+      <c r="B315" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>coonnnnoor</t>
+        </is>
+      </c>
+      <c r="B316" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>angellaangella47</t>
+        </is>
+      </c>
+      <c r="B317" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>ryanborjes</t>
+        </is>
+      </c>
+      <c r="B318" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>rachelwek217</t>
+        </is>
+      </c>
+      <c r="B319" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>meredithrosenorris</t>
+        </is>
+      </c>
+      <c r="B320" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>billkmartin</t>
+        </is>
+      </c>
+      <c r="B321" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>gaganteja04</t>
+        </is>
+      </c>
+      <c r="B322" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>shellilynnscott</t>
+        </is>
+      </c>
+      <c r="B323" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>loloxoxo34</t>
+        </is>
+      </c>
+      <c r="B324" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>gmangene</t>
+        </is>
+      </c>
+      <c r="B325" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>fake_cubby1427</t>
+        </is>
+      </c>
+      <c r="B326" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>nyaa6s</t>
+        </is>
+      </c>
+      <c r="B327" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>raylyndelmundo</t>
+        </is>
+      </c>
+      <c r="B328" t="b">
         <v>0</v>
       </c>
     </row>

--- a/Marketing/vcu.roomme.xlsx
+++ b/Marketing/vcu.roomme.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B328"/>
+  <dimension ref="A1:B493"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,7 +448,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>mswendyknits</t>
+          <t>kaciesteinmetz</t>
         </is>
       </c>
       <c r="B2" t="b">
@@ -458,7 +458,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>rmdrkm</t>
+          <t>nadiastewart_</t>
         </is>
       </c>
       <c r="B3" t="b">
@@ -468,7 +468,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>vuu_marchingpanthers</t>
+          <t>_erica.monet_</t>
         </is>
       </c>
       <c r="B4" t="b">
@@ -478,7 +478,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>andreapj77</t>
+          <t>kristingj112421</t>
         </is>
       </c>
       <c r="B5" t="b">
@@ -488,7 +488,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>treywasmade</t>
+          <t>marned</t>
         </is>
       </c>
       <c r="B6" t="b">
@@ -498,7 +498,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>getemtothechink</t>
+          <t>_talia_brooke_</t>
         </is>
       </c>
       <c r="B7" t="b">
@@ -508,7 +508,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>domlonia</t>
+          <t>curtistmarshall</t>
         </is>
       </c>
       <c r="B8" t="b">
@@ -518,7 +518,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>_indigoday</t>
+          <t>jojoannmullen</t>
         </is>
       </c>
       <c r="B9" t="b">
@@ -528,7 +528,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>bonbobba</t>
+          <t>ndia.amari</t>
         </is>
       </c>
       <c r="B10" t="b">
@@ -538,7 +538,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>muffykitty2004</t>
+          <t>leomartin_x</t>
         </is>
       </c>
       <c r="B11" t="b">
@@ -548,7 +548,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>yana.exxe</t>
+          <t>1_btyfl_flwr</t>
         </is>
       </c>
       <c r="B12" t="b">
@@ -558,7 +558,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>cassie_pepper1213</t>
+          <t>uc_vcu</t>
         </is>
       </c>
       <c r="B13" t="b">
@@ -568,7 +568,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>iits_valentinaaa</t>
+          <t>slaughtersb1</t>
         </is>
       </c>
       <c r="B14" t="b">
@@ -578,7 +578,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>aryankix101</t>
+          <t>ashanntii.i_</t>
         </is>
       </c>
       <c r="B15" t="b">
@@ -588,7 +588,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>fred_rick05</t>
+          <t>imemeera</t>
         </is>
       </c>
       <c r="B16" t="b">
@@ -598,7 +598,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>bmadstaymad</t>
+          <t>la_lums32</t>
         </is>
       </c>
       <c r="B17" t="b">
@@ -608,7 +608,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>therealaljones</t>
+          <t>rafuwuf</t>
         </is>
       </c>
       <c r="B18" t="b">
@@ -618,7 +618,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>ericgyurov224</t>
+          <t>ykk_itss_tyy</t>
         </is>
       </c>
       <c r="B19" t="b">
@@ -628,7 +628,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>jerryn03</t>
+          <t>synnccere</t>
         </is>
       </c>
       <c r="B20" t="b">
@@ -638,7 +638,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>hornet_dining</t>
+          <t>kimberlylynn955</t>
         </is>
       </c>
       <c r="B21" t="b">
@@ -648,7 +648,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>softball__girl___03</t>
+          <t>pthscounselor</t>
         </is>
       </c>
       <c r="B22" t="b">
@@ -658,7 +658,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>804tyee</t>
+          <t>e.hong23</t>
         </is>
       </c>
       <c r="B23" t="b">
@@ -668,7 +668,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>michael.schricker</t>
+          <t>jenna.hallinger</t>
         </is>
       </c>
       <c r="B24" t="b">
@@ -678,7 +678,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>khushimonster</t>
+          <t>sam_0u101_</t>
         </is>
       </c>
       <c r="B25" t="b">
@@ -688,7 +688,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>kallee.elisabeth</t>
+          <t>ms.249a</t>
         </is>
       </c>
       <c r="B26" t="b">
@@ -698,7 +698,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>juiciestfruit_</t>
+          <t>sweet2thhelen</t>
         </is>
       </c>
       <c r="B27" t="b">
@@ -708,7 +708,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>lisazephyr</t>
+          <t>sasatvcu</t>
         </is>
       </c>
       <c r="B28" t="b">
@@ -718,7 +718,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>kphig.theta</t>
+          <t>ms.sahilliard</t>
         </is>
       </c>
       <c r="B29" t="b">
@@ -728,7 +728,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>rubytorres_04</t>
+          <t>dmvzev.tv</t>
         </is>
       </c>
       <c r="B30" t="b">
@@ -738,7 +738,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>michellet.nguyen</t>
+          <t>rise_atwilder</t>
         </is>
       </c>
       <c r="B31" t="b">
@@ -748,7 +748,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>spence.chap</t>
+          <t>bmd_63</t>
         </is>
       </c>
       <c r="B32" t="b">
@@ -758,7 +758,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>jdan_eastman</t>
+          <t>_21lkl</t>
         </is>
       </c>
       <c r="B33" t="b">
@@ -768,7 +768,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>nywick_</t>
+          <t>ampongratz</t>
         </is>
       </c>
       <c r="B34" t="b">
@@ -778,7 +778,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>itsskotaa</t>
+          <t>ramshouse.rva</t>
         </is>
       </c>
       <c r="B35" t="b">
@@ -788,7 +788,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>lilheartbreakerkid</t>
+          <t>cesna_sana_vcu</t>
         </is>
       </c>
       <c r="B36" t="b">
@@ -798,7 +798,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>amazznambitionx</t>
+          <t>arjun.m05</t>
         </is>
       </c>
       <c r="B37" t="b">
@@ -808,7 +808,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>riley.donelan</t>
+          <t>jeve_la</t>
         </is>
       </c>
       <c r="B38" t="b">
@@ -818,7 +818,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>noodlegirl6</t>
+          <t>massagem4mrichmond</t>
         </is>
       </c>
       <c r="B39" t="b">
@@ -828,7 +828,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>umm_its_kaniya</t>
+          <t>sawsan_2009</t>
         </is>
       </c>
       <c r="B40" t="b">
@@ -838,7 +838,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>altaria33</t>
+          <t>mutti.gram</t>
         </is>
       </c>
       <c r="B41" t="b">
@@ -848,7 +848,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>amara._rhone</t>
+          <t>sierra.henao</t>
         </is>
       </c>
       <c r="B42" t="b">
@@ -858,7 +858,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>doreyjayyy</t>
+          <t>bri.duhhhh</t>
         </is>
       </c>
       <c r="B43" t="b">
@@ -868,7 +868,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>emmadettra</t>
+          <t>delaneyquayle</t>
         </is>
       </c>
       <c r="B44" t="b">
@@ -878,7 +878,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>kreative_yoga_by_kanika</t>
+          <t>roseykay73</t>
         </is>
       </c>
       <c r="B45" t="b">
@@ -888,7 +888,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>user83716189391</t>
+          <t>amrose_1</t>
         </is>
       </c>
       <c r="B46" t="b">
@@ -898,7 +898,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>rclarks74</t>
+          <t>janccorrea</t>
         </is>
       </c>
       <c r="B47" t="b">
@@ -908,7 +908,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>malanijohnson07</t>
+          <t>petrovicvasilije879</t>
         </is>
       </c>
       <c r="B48" t="b">
@@ -918,7 +918,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>nafisa.anjum_</t>
+          <t>mireya0404</t>
         </is>
       </c>
       <c r="B49" t="b">
@@ -928,7 +928,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>pierce_cutler</t>
+          <t>kate.rib316</t>
         </is>
       </c>
       <c r="B50" t="b">
@@ -938,7 +938,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>olivia__0315</t>
+          <t>bethniehoff21</t>
         </is>
       </c>
       <c r="B51" t="b">
@@ -948,7 +948,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>jasinor</t>
+          <t>kelly_coldiron</t>
         </is>
       </c>
       <c r="B52" t="b">
@@ -958,7 +958,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>amy777dan</t>
+          <t>monica.hutchins1</t>
         </is>
       </c>
       <c r="B53" t="b">
@@ -968,7 +968,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>shotsforsinglemoms</t>
+          <t>robin_.lu</t>
         </is>
       </c>
       <c r="B54" t="b">
@@ -978,7 +978,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>thereallbutterfly</t>
+          <t>vcu2026</t>
         </is>
       </c>
       <c r="B55" t="b">
@@ -988,7 +988,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>they.luv.manie</t>
+          <t>heatherbrownva</t>
         </is>
       </c>
       <c r="B56" t="b">
@@ -998,7 +998,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>max_chan1005</t>
+          <t>b.michelle.a</t>
         </is>
       </c>
       <c r="B57" t="b">
@@ -1008,7 +1008,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>isabella_w20</t>
+          <t>cox.diedre</t>
         </is>
       </c>
       <c r="B58" t="b">
@@ -1018,7 +1018,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>molpratt</t>
+          <t>maggie.rusinak</t>
         </is>
       </c>
       <c r="B59" t="b">
@@ -1028,7 +1028,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>_mooonlight_98</t>
+          <t>stephkozak9</t>
         </is>
       </c>
       <c r="B60" t="b">
@@ -1038,7 +1038,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>jasmineayad_</t>
+          <t>jandj6825</t>
         </is>
       </c>
       <c r="B61" t="b">
@@ -1048,707 +1048,707 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>amya_mjz</t>
+          <t>ashleycollins1625</t>
         </is>
       </c>
       <c r="B62" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>solememmaa</t>
+          <t>johnnypapstar</t>
         </is>
       </c>
       <c r="B63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>jer.emy.john</t>
+          <t>areecevcu27</t>
         </is>
       </c>
       <c r="B64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>sitasart</t>
+          <t>brightness2010</t>
         </is>
       </c>
       <c r="B65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>amanda_sasso_</t>
+          <t>lexihowarddd</t>
         </is>
       </c>
       <c r="B66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>goonyayo907_</t>
+          <t>ashleyteff</t>
         </is>
       </c>
       <c r="B67" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>thatpunkkenny26</t>
+          <t>keenportillo</t>
         </is>
       </c>
       <c r="B68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>goof.ygirlwonder10002019</t>
+          <t>jazminarriolaa</t>
         </is>
       </c>
       <c r="B69" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>parkeramirato</t>
+          <t>taylorcameron90</t>
         </is>
       </c>
       <c r="B70" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>ari__bby</t>
+          <t>user6337285</t>
         </is>
       </c>
       <c r="B71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>cabbagememorial</t>
+          <t>2exclusive._ceciliaa</t>
         </is>
       </c>
       <c r="B72" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>bogdan_vrl</t>
+          <t>thetylerbowyer</t>
         </is>
       </c>
       <c r="B73" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>bandmom2022</t>
+          <t>oneluckymamma2006</t>
         </is>
       </c>
       <c r="B74" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>bengpftw04</t>
+          <t>whichmyk</t>
         </is>
       </c>
       <c r="B75" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>vcu_dining</t>
+          <t>vcudmam</t>
         </is>
       </c>
       <c r="B76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>trinitykamari</t>
+          <t>kimthao.la</t>
         </is>
       </c>
       <c r="B77" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>marymisbell</t>
+          <t>wicked.72</t>
         </is>
       </c>
       <c r="B78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>asia_willl</t>
+          <t>lulumegahed</t>
         </is>
       </c>
       <c r="B79" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>floyd_jaden</t>
+          <t>dylandevon93</t>
         </is>
       </c>
       <c r="B80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>artbymeb</t>
+          <t>dc04_0.4</t>
         </is>
       </c>
       <c r="B81" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>ritikamanthena</t>
+          <t>kellyteeling</t>
         </is>
       </c>
       <c r="B82" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>_m4ymay</t>
+          <t>vcuhumanresources</t>
         </is>
       </c>
       <c r="B83" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>huni_dymon</t>
+          <t>yaya2924578</t>
         </is>
       </c>
       <c r="B84" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>katiepba</t>
+          <t>trulyparker_</t>
         </is>
       </c>
       <c r="B85" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>seantyoo</t>
+          <t>scfaatdale</t>
         </is>
       </c>
       <c r="B86" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>jonnytannnn</t>
+          <t>kcroberts4</t>
         </is>
       </c>
       <c r="B87" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>sriya_jakka</t>
+          <t>amuradi</t>
         </is>
       </c>
       <c r="B88" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>cmmillier</t>
+          <t>camilaa_rp</t>
         </is>
       </c>
       <c r="B89" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>kuyaerth</t>
+          <t>kbruce04</t>
         </is>
       </c>
       <c r="B90" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>chris.kekoa</t>
+          <t>loqua._.3180</t>
         </is>
       </c>
       <c r="B91" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>dalton.jenkins_</t>
+          <t>vcuchef</t>
         </is>
       </c>
       <c r="B92" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>beepboop330</t>
+          <t>scorpdiva540</t>
         </is>
       </c>
       <c r="B93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>theerealcherish</t>
+          <t>missambrialy</t>
         </is>
       </c>
       <c r="B94" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>ishmaaub</t>
+          <t>beach_mom757</t>
         </is>
       </c>
       <c r="B95" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>harebearss</t>
+          <t>netra.shah23</t>
         </is>
       </c>
       <c r="B96" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>isabella_wln</t>
+          <t>hnabbale</t>
         </is>
       </c>
       <c r="B97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>olivia.reginaaho</t>
+          <t>sebinescaria</t>
         </is>
       </c>
       <c r="B98" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>me.lny</t>
+          <t>yurrrrrrrpart_2</t>
         </is>
       </c>
       <c r="B99" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>holyspiritamunragod</t>
+          <t>vcu_sass</t>
         </is>
       </c>
       <c r="B100" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>leakeforhenrico</t>
+          <t>richmondvapal</t>
         </is>
       </c>
       <c r="B101" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>lunaa___22</t>
+          <t>ba.ss469</t>
         </is>
       </c>
       <c r="B102" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>kwamee.s_</t>
+          <t>vcufoodies</t>
         </is>
       </c>
       <c r="B103" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>averyelewis</t>
+          <t>madisonsweet18</t>
         </is>
       </c>
       <c r="B104" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>debbiedooops</t>
+          <t>deejah.ra</t>
         </is>
       </c>
       <c r="B105" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>weaver_342</t>
+          <t>livingbetterlauren</t>
         </is>
       </c>
       <c r="B106" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>amilmom1</t>
+          <t>hayleyabannister</t>
         </is>
       </c>
       <c r="B107" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>pariiss.__</t>
+          <t>tulsi2503</t>
         </is>
       </c>
       <c r="B108" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>lalisamanobal_nyein221108</t>
+          <t>vcurampantry</t>
         </is>
       </c>
       <c r="B109" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>whotfismahfed</t>
+          <t>dancer._deyy</t>
         </is>
       </c>
       <c r="B110" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>semeka2012</t>
+          <t>namaste_grl</t>
         </is>
       </c>
       <c r="B111" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>cassandra.vanessac</t>
+          <t>saturnsevolution</t>
         </is>
       </c>
       <c r="B112" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>kyle_lesko_</t>
+          <t>msctwalker</t>
         </is>
       </c>
       <c r="B113" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>maxcolpo</t>
+          <t>shalea.jones</t>
         </is>
       </c>
       <c r="B114" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>jcm.ire</t>
+          <t>pmathr.3</t>
         </is>
       </c>
       <c r="B115" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>haleymarbury</t>
+          <t>dr.i.rod</t>
         </is>
       </c>
       <c r="B116" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>vcurecwell</t>
+          <t>mrodri124</t>
         </is>
       </c>
       <c r="B117" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>sarabthz</t>
+          <t>jess_soffian</t>
         </is>
       </c>
       <c r="B118" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>zaria.alana_</t>
+          <t>treybadass22</t>
         </is>
       </c>
       <c r="B119" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>jxstnutty</t>
+          <t>innocentyuh4</t>
         </is>
       </c>
       <c r="B120" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>janky_taay</t>
+          <t>hbrodee7</t>
         </is>
       </c>
       <c r="B121" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>therealest4evr</t>
+          <t>duaaabdullah</t>
         </is>
       </c>
       <c r="B122" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>pontehaa</t>
+          <t>sarah68</t>
         </is>
       </c>
       <c r="B123" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>inayahh_ali</t>
+          <t>yeatrireck</t>
         </is>
       </c>
       <c r="B124" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>kennedyypotterr</t>
+          <t>triiniityc</t>
         </is>
       </c>
       <c r="B125" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>yea.nickk</t>
+          <t>christinak825</t>
         </is>
       </c>
       <c r="B126" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>rani_sangha_</t>
+          <t>chimeneboone</t>
         </is>
       </c>
       <c r="B127" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>eva.mcmullan</t>
+          <t>drval_phd</t>
         </is>
       </c>
       <c r="B128" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>christian.selken</t>
+          <t>idgm_20</t>
         </is>
       </c>
       <c r="B129" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>jjmejiasl</t>
+          <t>sunnib07</t>
         </is>
       </c>
       <c r="B130" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>benderj5</t>
+          <t>carmela_macera</t>
         </is>
       </c>
       <c r="B131" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>theyneedryan</t>
+          <t>riazlaghari</t>
         </is>
       </c>
       <c r="B132" t="b">
@@ -1758,7 +1758,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>aurora_borealis234</t>
+          <t>millarkirsta</t>
         </is>
       </c>
       <c r="B133" t="b">
@@ -1768,7 +1768,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>nylaaylssa</t>
+          <t>trinzo_g</t>
         </is>
       </c>
       <c r="B134" t="b">
@@ -1778,7 +1778,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>b1ue45_1likeanime</t>
+          <t>magic._.squid</t>
         </is>
       </c>
       <c r="B135" t="b">
@@ -1788,7 +1788,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>willonamartin</t>
+          <t>myaa2_9</t>
         </is>
       </c>
       <c r="B136" t="b">
@@ -1798,7 +1798,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>_katepapers._</t>
+          <t>ms.hargrove_msw</t>
         </is>
       </c>
       <c r="B137" t="b">
@@ -1808,7 +1808,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>irelew1216</t>
+          <t>cardinals_care</t>
         </is>
       </c>
       <c r="B138" t="b">
@@ -1818,7 +1818,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>jamesw12276</t>
+          <t>swampfaye.art</t>
         </is>
       </c>
       <c r="B139" t="b">
@@ -1828,7 +1828,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>va_na8tive</t>
+          <t>love.teyah</t>
         </is>
       </c>
       <c r="B140" t="b">
@@ -1838,7 +1838,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>nishaajis1am</t>
+          <t>fkq.ash</t>
         </is>
       </c>
       <c r="B141" t="b">
@@ -1848,7 +1848,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>1_btyfl_flwr</t>
+          <t>av.ery4500</t>
         </is>
       </c>
       <c r="B142" t="b">
@@ -1858,7 +1858,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>maddie_leitch</t>
+          <t>bryankelly5569</t>
         </is>
       </c>
       <c r="B143" t="b">
@@ -1868,7 +1868,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>monshayk__</t>
+          <t>iusama_nadeem</t>
         </is>
       </c>
       <c r="B144" t="b">
@@ -1878,7 +1878,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>daniel_zerrusen</t>
+          <t>taznovum</t>
         </is>
       </c>
       <c r="B145" t="b">
@@ -1888,7 +1888,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>peoplearetheworse</t>
+          <t>vcu_vpsa</t>
         </is>
       </c>
       <c r="B146" t="b">
@@ -1898,7 +1898,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>_.tchampion._</t>
+          <t>kendralyons_the_artist</t>
         </is>
       </c>
       <c r="B147" t="b">
@@ -1908,7 +1908,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>bigc8500</t>
+          <t>denvereast_counseling</t>
         </is>
       </c>
       <c r="B148" t="b">
@@ -1918,7 +1918,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>jeannetterrivera</t>
+          <t>dejialaye</t>
         </is>
       </c>
       <c r="B149" t="b">
@@ -1928,7 +1928,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>kppate99</t>
+          <t>gqherbm0208</t>
         </is>
       </c>
       <c r="B150" t="b">
@@ -1938,7 +1938,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>meowmeowdev</t>
+          <t>aliaazdoc</t>
         </is>
       </c>
       <c r="B151" t="b">
@@ -1948,7 +1948,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>ascendrva</t>
+          <t>757oliviaj</t>
         </is>
       </c>
       <c r="B152" t="b">
@@ -1958,7 +1958,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>myduchess2</t>
+          <t>wemakeitinrva</t>
         </is>
       </c>
       <c r="B153" t="b">
@@ -1968,7 +1968,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>dul_is_tired</t>
+          <t>motleygirl76</t>
         </is>
       </c>
       <c r="B154" t="b">
@@ -1978,7 +1978,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>sulwee56</t>
+          <t>danifire2</t>
         </is>
       </c>
       <c r="B155" t="b">
@@ -1988,7 +1988,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>cambankss</t>
+          <t>jenwdugan</t>
         </is>
       </c>
       <c r="B156" t="b">
@@ -1998,7 +1998,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>the_ikon_kalani</t>
+          <t>dclark183</t>
         </is>
       </c>
       <c r="B157" t="b">
@@ -2008,7 +2008,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>charlespsychos</t>
+          <t>iris.mcneil</t>
         </is>
       </c>
       <c r="B158" t="b">
@@ -2018,7 +2018,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>devinostulano</t>
+          <t>regi.phm</t>
         </is>
       </c>
       <c r="B159" t="b">
@@ -2028,7 +2028,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>jdef22</t>
+          <t>currerbell1816</t>
         </is>
       </c>
       <c r="B160" t="b">
@@ -2038,7 +2038,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>jawon999</t>
+          <t>rae.fck</t>
         </is>
       </c>
       <c r="B161" t="b">
@@ -2048,7 +2048,7 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>lauren_ebyy</t>
+          <t>maurittam</t>
         </is>
       </c>
       <c r="B162" t="b">
@@ -2058,7 +2058,7 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>ameradil5174</t>
+          <t>msicva</t>
         </is>
       </c>
       <c r="B163" t="b">
@@ -2068,7 +2068,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>monika.elizabethh</t>
+          <t>lilyrgallardo</t>
         </is>
       </c>
       <c r="B164" t="b">
@@ -2078,7 +2078,7 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>linds.dolan</t>
+          <t>runallthemiles</t>
         </is>
       </c>
       <c r="B165" t="b">
@@ -2088,7 +2088,7 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>dielon._</t>
+          <t>trulyycamm</t>
         </is>
       </c>
       <c r="B166" t="b">
@@ -2098,7 +2098,7 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>sean_2.72</t>
+          <t>cameronn.ashley</t>
         </is>
       </c>
       <c r="B167" t="b">
@@ -2108,7 +2108,7 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>mistpham</t>
+          <t>triscia_mcg</t>
         </is>
       </c>
       <c r="B168" t="b">
@@ -2118,7 +2118,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>riley.l.w.kerr</t>
+          <t>fbuzzanca24</t>
         </is>
       </c>
       <c r="B169" t="b">
@@ -2128,7 +2128,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>emmatoggia</t>
+          <t>bp.neni</t>
         </is>
       </c>
       <c r="B170" t="b">
@@ -2138,7 +2138,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>kungfukenny04</t>
+          <t>jawon999</t>
         </is>
       </c>
       <c r="B171" t="b">
@@ -2148,7 +2148,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>abby_chue</t>
+          <t>maherka</t>
         </is>
       </c>
       <c r="B172" t="b">
@@ -2158,7 +2158,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>pablo_ff504</t>
+          <t>alernawi</t>
         </is>
       </c>
       <c r="B173" t="b">
@@ -2168,7 +2168,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>jackschwartzberg25</t>
+          <t>sidu_24</t>
         </is>
       </c>
       <c r="B174" t="b">
@@ -2178,7 +2178,7 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>paolaaartero</t>
+          <t>fionabui2692</t>
         </is>
       </c>
       <c r="B175" t="b">
@@ -2188,7 +2188,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>glwardlow</t>
+          <t>yinagarcia</t>
         </is>
       </c>
       <c r="B176" t="b">
@@ -2198,7 +2198,7 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>rushi629</t>
+          <t>jdidlake</t>
         </is>
       </c>
       <c r="B177" t="b">
@@ -2208,7 +2208,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>ismaelmonroy03</t>
+          <t>addofocus</t>
         </is>
       </c>
       <c r="B178" t="b">
@@ -2218,7 +2218,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>judek.293</t>
+          <t>cakesbykeyonna</t>
         </is>
       </c>
       <c r="B179" t="b">
@@ -2228,7 +2228,7 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>wend.dyy_</t>
+          <t>lizzey7323</t>
         </is>
       </c>
       <c r="B180" t="b">
@@ -2238,7 +2238,7 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>elenoredeluna</t>
+          <t>amysinscv</t>
         </is>
       </c>
       <c r="B181" t="b">
@@ -2248,7 +2248,7 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>lee.oura</t>
+          <t>hbrodee</t>
         </is>
       </c>
       <c r="B182" t="b">
@@ -2258,7 +2258,7 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>courtney.lebow</t>
+          <t>duckitaytay</t>
         </is>
       </c>
       <c r="B183" t="b">
@@ -2268,7 +2268,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>maru_dlv</t>
+          <t>gooddaytogolf</t>
         </is>
       </c>
       <c r="B184" t="b">
@@ -2278,7 +2278,7 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>futurevisionariesvcu</t>
+          <t>crispino206</t>
         </is>
       </c>
       <c r="B185" t="b">
@@ -2288,7 +2288,7 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>kashed.out.kell</t>
+          <t>qtnxvr</t>
         </is>
       </c>
       <c r="B186" t="b">
@@ -2298,7 +2298,7 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>vcuchristians</t>
+          <t>veelevy</t>
         </is>
       </c>
       <c r="B187" t="b">
@@ -2308,7 +2308,7 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>c0lesw4gxd</t>
+          <t>3irhsa</t>
         </is>
       </c>
       <c r="B188" t="b">
@@ -2318,7 +2318,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>jaso.nlopez89</t>
+          <t>blatina_4ever_</t>
         </is>
       </c>
       <c r="B189" t="b">
@@ -2328,7 +2328,7 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>seeley8833</t>
+          <t>fslvcu</t>
         </is>
       </c>
       <c r="B190" t="b">
@@ -2338,7 +2338,7 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>dr.sanaqarawi</t>
+          <t>patcason9</t>
         </is>
       </c>
       <c r="B191" t="b">
@@ -2348,7 +2348,7 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>sophieee_kings</t>
+          <t>raphael_mwa</t>
         </is>
       </c>
       <c r="B192" t="b">
@@ -2358,7 +2358,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>_nia.simone04_</t>
+          <t>oscar_whiskey1</t>
         </is>
       </c>
       <c r="B193" t="b">
@@ -2368,7 +2368,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>_jaymohb</t>
+          <t>jamieashjian</t>
         </is>
       </c>
       <c r="B194" t="b">
@@ -2378,7 +2378,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>swiggwolla</t>
+          <t>vcu_altbreaks</t>
         </is>
       </c>
       <c r="B195" t="b">
@@ -2388,7 +2388,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>dani_elle.r</t>
+          <t>the_vendor_collective_rva</t>
         </is>
       </c>
       <c r="B196" t="b">
@@ -2398,7 +2398,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>misthi.choksi</t>
+          <t>kevinhyphenallen</t>
         </is>
       </c>
       <c r="B197" t="b">
@@ -2408,7 +2408,7 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>trmpeta</t>
+          <t>libby.jamison</t>
         </is>
       </c>
       <c r="B198" t="b">
@@ -2418,7 +2418,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>hanayaghii</t>
+          <t>newby_mel</t>
         </is>
       </c>
       <c r="B199" t="b">
@@ -2428,7 +2428,7 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>cona_stokes</t>
+          <t>itshanaaa__1</t>
         </is>
       </c>
       <c r="B200" t="b">
@@ -2438,7 +2438,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>marcelino_megaly799</t>
+          <t>suha007</t>
         </is>
       </c>
       <c r="B201" t="b">
@@ -2448,7 +2448,7 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>liliyhdz</t>
+          <t>therictoday</t>
         </is>
       </c>
       <c r="B202" t="b">
@@ -2458,7 +2458,7 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>qurantatum</t>
+          <t>allessandraelisabeth</t>
         </is>
       </c>
       <c r="B203" t="b">
@@ -2468,7 +2468,7 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>kaylenlange</t>
+          <t>shammiet</t>
         </is>
       </c>
       <c r="B204" t="b">
@@ -2478,7 +2478,7 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>_yvon_d</t>
+          <t>gabe_shore_</t>
         </is>
       </c>
       <c r="B205" t="b">
@@ -2488,7 +2488,7 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>whitegurlt</t>
+          <t>abc_teaches</t>
         </is>
       </c>
       <c r="B206" t="b">
@@ -2498,7 +2498,7 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>sophiadeldonna</t>
+          <t>kathleen.natasha</t>
         </is>
       </c>
       <c r="B207" t="b">
@@ -2508,7 +2508,7 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>joshwoodburn_</t>
+          <t>_vera_a_02</t>
         </is>
       </c>
       <c r="B208" t="b">
@@ -2518,7 +2518,7 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>ivy_starfish</t>
+          <t>itahblessing</t>
         </is>
       </c>
       <c r="B209" t="b">
@@ -2528,7 +2528,7 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>mizzy10316</t>
+          <t>sandraleelovelace</t>
         </is>
       </c>
       <c r="B210" t="b">
@@ -2538,7 +2538,7 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>hanni_nj2</t>
+          <t>katyyruano</t>
         </is>
       </c>
       <c r="B211" t="b">
@@ -2548,7 +2548,7 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>xuziie</t>
+          <t>shivangi.lowkey23</t>
         </is>
       </c>
       <c r="B212" t="b">
@@ -2558,7 +2558,7 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>l.v.deuce</t>
+          <t>nomad_in_the_hills</t>
         </is>
       </c>
       <c r="B213" t="b">
@@ -2568,7 +2568,7 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>heidi_e_marle</t>
+          <t>ugc_vcu</t>
         </is>
       </c>
       <c r="B214" t="b">
@@ -2578,7 +2578,7 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>justinzchan</t>
+          <t>aubreymyerrs</t>
         </is>
       </c>
       <c r="B215" t="b">
@@ -2588,7 +2588,7 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>_chr1s_666_</t>
+          <t>alenesnyderr</t>
         </is>
       </c>
       <c r="B216" t="b">
@@ -2598,7 +2598,7 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>_taylortaytay_</t>
+          <t>natalie.guenevere_</t>
         </is>
       </c>
       <c r="B217" t="b">
@@ -2608,7 +2608,7 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>iheartbrycie</t>
+          <t>_azad_sara</t>
         </is>
       </c>
       <c r="B218" t="b">
@@ -2618,7 +2618,7 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>evalinarendon</t>
+          <t>criddi_</t>
         </is>
       </c>
       <c r="B219" t="b">
@@ -2628,7 +2628,7 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>vinatak_15</t>
+          <t>joekat2728</t>
         </is>
       </c>
       <c r="B220" t="b">
@@ -2638,7 +2638,7 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>j.alexross</t>
+          <t>jennberger296</t>
         </is>
       </c>
       <c r="B221" t="b">
@@ -2648,7 +2648,7 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>avrie_p</t>
+          <t>emma426_</t>
         </is>
       </c>
       <c r="B222" t="b">
@@ -2658,7 +2658,7 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>saeed__nafisi</t>
+          <t>xo.shellymarie</t>
         </is>
       </c>
       <c r="B223" t="b">
@@ -2668,7 +2668,7 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>krsully7</t>
+          <t>dawesmurphy</t>
         </is>
       </c>
       <c r="B224" t="b">
@@ -2678,7 +2678,7 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>jocelyn_clary2</t>
+          <t>snuckumsfloralandgifts</t>
         </is>
       </c>
       <c r="B225" t="b">
@@ -2688,7 +2688,7 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>jadaluvzuuu</t>
+          <t>_.aarennnnn</t>
         </is>
       </c>
       <c r="B226" t="b">
@@ -2698,7 +2698,7 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>mhcva</t>
+          <t>nicolas_lotz</t>
         </is>
       </c>
       <c r="B227" t="b">
@@ -2708,7 +2708,7 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>nocapdavid</t>
+          <t>kcedwards5</t>
         </is>
       </c>
       <c r="B228" t="b">
@@ -2718,7 +2718,7 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>datgoatb</t>
+          <t>redcrossatvcu</t>
         </is>
       </c>
       <c r="B229" t="b">
@@ -2728,7 +2728,7 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>nivigirish</t>
+          <t>ov.bobby</t>
         </is>
       </c>
       <c r="B230" t="b">
@@ -2738,7 +2738,7 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>allboutjaclyn</t>
+          <t>wacarswell04</t>
         </is>
       </c>
       <c r="B231" t="b">
@@ -2748,7 +2748,7 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>sweetbeesauce</t>
+          <t>su3ad93</t>
         </is>
       </c>
       <c r="B232" t="b">
@@ -2758,7 +2758,7 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>evolution9673</t>
+          <t>djtogni</t>
         </is>
       </c>
       <c r="B233" t="b">
@@ -2768,7 +2768,7 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>emersinnnnn</t>
+          <t>cweisfeld</t>
         </is>
       </c>
       <c r="B234" t="b">
@@ -2778,7 +2778,7 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>julietcastle23</t>
+          <t>teresa_21760</t>
         </is>
       </c>
       <c r="B235" t="b">
@@ -2788,7 +2788,7 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>brightness2010</t>
+          <t>vcuprime</t>
         </is>
       </c>
       <c r="B236" t="b">
@@ -2798,7 +2798,7 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>looking4kaylaa</t>
+          <t>onthecoolh2o</t>
         </is>
       </c>
       <c r="B237" t="b">
@@ -2808,7 +2808,7 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>cache.3.bentley</t>
+          <t>danyguirguis</t>
         </is>
       </c>
       <c r="B238" t="b">
@@ -2818,7 +2818,7 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>_ksarfo</t>
+          <t>o1.confidential</t>
         </is>
       </c>
       <c r="B239" t="b">
@@ -2828,7 +2828,7 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>_tired.ty_</t>
+          <t>polaroid88insta</t>
         </is>
       </c>
       <c r="B240" t="b">
@@ -2838,7 +2838,7 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>lenaelliott23</t>
+          <t>jude_okafor_</t>
         </is>
       </c>
       <c r="B241" t="b">
@@ -2848,7 +2848,7 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>nscfluser1</t>
+          <t>tazzyahya_m5</t>
         </is>
       </c>
       <c r="B242" t="b">
@@ -2858,7 +2858,7 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>mvpnaya</t>
+          <t>ttayx18</t>
         </is>
       </c>
       <c r="B243" t="b">
@@ -2868,7 +2868,7 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>slz.adrian</t>
+          <t>tiiithingg</t>
         </is>
       </c>
       <c r="B244" t="b">
@@ -2878,7 +2878,7 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>gokul_chaluvadi</t>
+          <t>smvk1216</t>
         </is>
       </c>
       <c r="B245" t="b">
@@ -2888,7 +2888,7 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>lukepinneo</t>
+          <t>humezaleezay</t>
         </is>
       </c>
       <c r="B246" t="b">
@@ -2898,7 +2898,7 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>mel.urq</t>
+          <t>gabesck14</t>
         </is>
       </c>
       <c r="B247" t="b">
@@ -2908,7 +2908,7 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>k._s.jhhhg</t>
+          <t>1colorado_queen</t>
         </is>
       </c>
       <c r="B248" t="b">
@@ -2918,7 +2918,7 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>dar.haadi</t>
+          <t>addisonhaug</t>
         </is>
       </c>
       <c r="B249" t="b">
@@ -2928,7 +2928,7 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>amaaayya_</t>
+          <t>lmwg32</t>
         </is>
       </c>
       <c r="B250" t="b">
@@ -2938,7 +2938,7 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>danmoss17</t>
+          <t>bs_balloon</t>
         </is>
       </c>
       <c r="B251" t="b">
@@ -2948,7 +2948,7 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>leana__03</t>
+          <t>crisnchipz</t>
         </is>
       </c>
       <c r="B252" t="b">
@@ -2958,7 +2958,7 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>sophiaverhaeghe</t>
+          <t>chloe.whang</t>
         </is>
       </c>
       <c r="B253" t="b">
@@ -2968,7 +2968,7 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>dayeatsoup</t>
+          <t>asu93whyslhs88</t>
         </is>
       </c>
       <c r="B254" t="b">
@@ -2978,7 +2978,7 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>ayatelshafii</t>
+          <t>operationsmile.vcu</t>
         </is>
       </c>
       <c r="B255" t="b">
@@ -2988,7 +2988,7 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>payten.broderick</t>
+          <t>_peytonrose</t>
         </is>
       </c>
       <c r="B256" t="b">
@@ -2998,7 +2998,7 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>swarachokshi</t>
+          <t>crowe.maureen</t>
         </is>
       </c>
       <c r="B257" t="b">
@@ -3008,7 +3008,7 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>tarynkei_</t>
+          <t>1.fly.guy</t>
         </is>
       </c>
       <c r="B258" t="b">
@@ -3018,7 +3018,7 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>reaaaa._baby</t>
+          <t>c_jussy69</t>
         </is>
       </c>
       <c r="B259" t="b">
@@ -3028,7 +3028,7 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>amoyer03</t>
+          <t>vcu.models</t>
         </is>
       </c>
       <c r="B260" t="b">
@@ -3038,7 +3038,7 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>elijahlister04</t>
+          <t>dellsellsrva</t>
         </is>
       </c>
       <c r="B261" t="b">
@@ -3048,7 +3048,7 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>mrsmcboyle</t>
+          <t>kaylynn_hill14</t>
         </is>
       </c>
       <c r="B262" t="b">
@@ -3058,7 +3058,7 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>charity.cyril_</t>
+          <t>annettedurr33</t>
         </is>
       </c>
       <c r="B263" t="b">
@@ -3068,7 +3068,7 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>gavinstandish</t>
+          <t>elizbeth22</t>
         </is>
       </c>
       <c r="B264" t="b">
@@ -3078,7 +3078,7 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>alexbrown715</t>
+          <t>i_love_trombones35</t>
         </is>
       </c>
       <c r="B265" t="b">
@@ -3088,7 +3088,7 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>_richardho_</t>
+          <t>3000swagmeister</t>
         </is>
       </c>
       <c r="B266" t="b">
@@ -3098,7 +3098,7 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>hannahbinsley02</t>
+          <t>uknin</t>
         </is>
       </c>
       <c r="B267" t="b">
@@ -3108,7 +3108,7 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>calsgn_jager</t>
+          <t>westpoccc</t>
         </is>
       </c>
       <c r="B268" t="b">
@@ -3118,7 +3118,7 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>im_flightless_</t>
+          <t>aether.the_void</t>
         </is>
       </c>
       <c r="B269" t="b">
@@ -3128,7 +3128,7 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>james.watson.7902</t>
+          <t>wendymalamphy</t>
         </is>
       </c>
       <c r="B270" t="b">
@@ -3138,7 +3138,7 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>sharonzeballoss</t>
+          <t>lightskin_.gio4</t>
         </is>
       </c>
       <c r="B271" t="b">
@@ -3148,7 +3148,7 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>gursimar_dhaliwal19</t>
+          <t>eyezola_</t>
         </is>
       </c>
       <c r="B272" t="b">
@@ -3158,7 +3158,7 @@
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>dolleanb</t>
+          <t>danil0.r</t>
         </is>
       </c>
       <c r="B273" t="b">
@@ -3168,7 +3168,7 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>hburke1010</t>
+          <t>maryp3405</t>
         </is>
       </c>
       <c r="B274" t="b">
@@ -3178,7 +3178,7 @@
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>_kharbear_</t>
+          <t>tyler_lolo</t>
         </is>
       </c>
       <c r="B275" t="b">
@@ -3188,7 +3188,7 @@
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>deborahsepulveda19</t>
+          <t>nalani_lamberth</t>
         </is>
       </c>
       <c r="B276" t="b">
@@ -3198,7 +3198,7 @@
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>rexielawrence</t>
+          <t>ashleykvb</t>
         </is>
       </c>
       <c r="B277" t="b">
@@ -3208,7 +3208,7 @@
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>ashley.noeliaa</t>
+          <t>noaha29</t>
         </is>
       </c>
       <c r="B278" t="b">
@@ -3218,7 +3218,7 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>__chryssa__wilson__</t>
+          <t>they.luv.manie</t>
         </is>
       </c>
       <c r="B279" t="b">
@@ -3228,7 +3228,7 @@
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>andeeznuutz</t>
+          <t>gabriella_rashelle</t>
         </is>
       </c>
       <c r="B280" t="b">
@@ -3238,7 +3238,7 @@
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>quinton_.dowell</t>
+          <t>tinytiredstef</t>
         </is>
       </c>
       <c r="B281" t="b">
@@ -3248,7 +3248,7 @@
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>vcutrinkets</t>
+          <t>reneeeuell8</t>
         </is>
       </c>
       <c r="B282" t="b">
@@ -3258,7 +3258,7 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>shanayaaakhannnn</t>
+          <t>_cadenceungs_</t>
         </is>
       </c>
       <c r="B283" t="b">
@@ -3268,7 +3268,7 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>suvali.m</t>
+          <t>dmjcpa</t>
         </is>
       </c>
       <c r="B284" t="b">
@@ -3278,7 +3278,7 @@
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>emmygarciia</t>
+          <t>myfavoriterva</t>
         </is>
       </c>
       <c r="B285" t="b">
@@ -3288,7 +3288,7 @@
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>prento_bean</t>
+          <t>ahroarraw</t>
         </is>
       </c>
       <c r="B286" t="b">
@@ -3298,7 +3298,7 @@
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>hellokittylover_._</t>
+          <t>50plus_beastmode</t>
         </is>
       </c>
       <c r="B287" t="b">
@@ -3308,7 +3308,7 @@
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>madmath3w</t>
+          <t>eville_shera</t>
         </is>
       </c>
       <c r="B288" t="b">
@@ -3318,7 +3318,7 @@
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>amarelgamri</t>
+          <t>aliciabenitez803</t>
         </is>
       </c>
       <c r="B289" t="b">
@@ -3328,7 +3328,7 @@
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>shendrickson525</t>
+          <t>leigha.fritz</t>
         </is>
       </c>
       <c r="B290" t="b">
@@ -3338,7 +3338,7 @@
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>jlevyy</t>
+          <t>k4kmunkins</t>
         </is>
       </c>
       <c r="B291" t="b">
@@ -3348,7 +3348,7 @@
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>cele333stial</t>
+          <t>derock74</t>
         </is>
       </c>
       <c r="B292" t="b">
@@ -3358,7 +3358,7 @@
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>_mydanadeem</t>
+          <t>qly854317884</t>
         </is>
       </c>
       <c r="B293" t="b">
@@ -3368,7 +3368,7 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>_alexisserbin_</t>
+          <t>the.torr3yjoe</t>
         </is>
       </c>
       <c r="B294" t="b">
@@ -3378,7 +3378,7 @@
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>3lle.l</t>
+          <t>kc_bland</t>
         </is>
       </c>
       <c r="B295" t="b">
@@ -3388,7 +3388,7 @@
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>artbykimpkim</t>
+          <t>taximum_</t>
         </is>
       </c>
       <c r="B296" t="b">
@@ -3398,7 +3398,7 @@
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>jarr_bear86</t>
+          <t>demetramc</t>
         </is>
       </c>
       <c r="B297" t="b">
@@ -3408,7 +3408,7 @@
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>peytenxofawz34</t>
+          <t>nitanels2024</t>
         </is>
       </c>
       <c r="B298" t="b">
@@ -3418,7 +3418,7 @@
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>its_mandy_ba3</t>
+          <t>ashishkebabs</t>
         </is>
       </c>
       <c r="B299" t="b">
@@ -3428,7 +3428,7 @@
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>m1lk_dud</t>
+          <t>hmc_pruitt37</t>
         </is>
       </c>
       <c r="B300" t="b">
@@ -3438,7 +3438,7 @@
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>carrolinaaperez</t>
+          <t>rmdrkm</t>
         </is>
       </c>
       <c r="B301" t="b">
@@ -3448,7 +3448,7 @@
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>asyajl11</t>
+          <t>vcu_nso</t>
         </is>
       </c>
       <c r="B302" t="b">
@@ -3458,7 +3458,7 @@
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>nico.lelilano</t>
+          <t>anaalbuquerque1210</t>
         </is>
       </c>
       <c r="B303" t="b">
@@ -3468,7 +3468,7 @@
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>saggch2023</t>
+          <t>capri_flowers</t>
         </is>
       </c>
       <c r="B304" t="b">
@@ -3478,7 +3478,7 @@
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>scott.gorilla</t>
+          <t>rachelelouis</t>
         </is>
       </c>
       <c r="B305" t="b">
@@ -3488,7 +3488,7 @@
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>http.nuckols</t>
+          <t>allibhall</t>
         </is>
       </c>
       <c r="B306" t="b">
@@ -3498,7 +3498,7 @@
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>samantha_smith_67_04</t>
+          <t>_talia_backup</t>
         </is>
       </c>
       <c r="B307" t="b">
@@ -3508,7 +3508,7 @@
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>yaa_harriii</t>
+          <t>iam_amah_</t>
         </is>
       </c>
       <c r="B308" t="b">
@@ -3518,7 +3518,7 @@
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>b.a.y.l.o.r.2</t>
+          <t>icanabell</t>
         </is>
       </c>
       <c r="B309" t="b">
@@ -3528,7 +3528,7 @@
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>abbyhr_</t>
+          <t>luanaa.amin</t>
         </is>
       </c>
       <c r="B310" t="b">
@@ -3538,7 +3538,7 @@
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>ddgodward</t>
+          <t>piquitos_mami</t>
         </is>
       </c>
       <c r="B311" t="b">
@@ -3548,7 +3548,7 @@
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>emily_bridgit</t>
+          <t>sgandhi24_</t>
         </is>
       </c>
       <c r="B312" t="b">
@@ -3558,7 +3558,7 @@
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>phatlas03</t>
+          <t>a.mblii</t>
         </is>
       </c>
       <c r="B313" t="b">
@@ -3568,7 +3568,7 @@
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>mariah.anevia</t>
+          <t>brookslisad</t>
         </is>
       </c>
       <c r="B314" t="b">
@@ -3578,7 +3578,7 @@
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>nigg_ablue</t>
+          <t>quinn.r.grey</t>
         </is>
       </c>
       <c r="B315" t="b">
@@ -3588,7 +3588,7 @@
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>coonnnnoor</t>
+          <t>kenheacoxart</t>
         </is>
       </c>
       <c r="B316" t="b">
@@ -3598,7 +3598,7 @@
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>angellaangella47</t>
+          <t>the_real_espy</t>
         </is>
       </c>
       <c r="B317" t="b">
@@ -3608,7 +3608,7 @@
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>ryanborjes</t>
+          <t>schalloran</t>
         </is>
       </c>
       <c r="B318" t="b">
@@ -3618,7 +3618,7 @@
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>rachelwek217</t>
+          <t>birdluv2fly</t>
         </is>
       </c>
       <c r="B319" t="b">
@@ -3628,7 +3628,7 @@
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>meredithrosenorris</t>
+          <t>heelooddbsh</t>
         </is>
       </c>
       <c r="B320" t="b">
@@ -3638,7 +3638,7 @@
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>billkmartin</t>
+          <t>vcu_utees</t>
         </is>
       </c>
       <c r="B321" t="b">
@@ -3648,7 +3648,7 @@
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>gaganteja04</t>
+          <t>lbhscounseling</t>
         </is>
       </c>
       <c r="B322" t="b">
@@ -3658,7 +3658,7 @@
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>shellilynnscott</t>
+          <t>vcu.bshs</t>
         </is>
       </c>
       <c r="B323" t="b">
@@ -3668,7 +3668,7 @@
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>loloxoxo34</t>
+          <t>jimmycockram</t>
         </is>
       </c>
       <c r="B324" t="b">
@@ -3678,7 +3678,7 @@
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>gmangene</t>
+          <t>_solomon_3005</t>
         </is>
       </c>
       <c r="B325" t="b">
@@ -3688,7 +3688,7 @@
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>fake_cubby1427</t>
+          <t>limitarz4_limtarz4</t>
         </is>
       </c>
       <c r="B326" t="b">
@@ -3698,7 +3698,7 @@
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>nyaa6s</t>
+          <t>believe02222</t>
         </is>
       </c>
       <c r="B327" t="b">
@@ -3708,10 +3708,1660 @@
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>raylyndelmundo</t>
+          <t>timetochange2023</t>
         </is>
       </c>
       <c r="B328" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>joi.m.coleman</t>
+        </is>
+      </c>
+      <c r="B329" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>_smerika</t>
+        </is>
+      </c>
+      <c r="B330" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>moms2two</t>
+        </is>
+      </c>
+      <c r="B331" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>francisco12225</t>
+        </is>
+      </c>
+      <c r="B332" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>peterhall6518</t>
+        </is>
+      </c>
+      <c r="B333" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>2shqrt</t>
+        </is>
+      </c>
+      <c r="B334" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>iamabayomi</t>
+        </is>
+      </c>
+      <c r="B335" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>meshatheoutkast</t>
+        </is>
+      </c>
+      <c r="B336" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>_gabz.b_</t>
+        </is>
+      </c>
+      <c r="B337" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>omeezy_saad</t>
+        </is>
+      </c>
+      <c r="B338" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>army.recruiter.ssg_thomas</t>
+        </is>
+      </c>
+      <c r="B339" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>iampoundcake</t>
+        </is>
+      </c>
+      <c r="B340" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>omhobbs</t>
+        </is>
+      </c>
+      <c r="B341" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>dwightsauce</t>
+        </is>
+      </c>
+      <c r="B342" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>e_ve_lyn_23</t>
+        </is>
+      </c>
+      <c r="B343" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>mayah_kyereboah</t>
+        </is>
+      </c>
+      <c r="B344" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>_nikki_8b</t>
+        </is>
+      </c>
+      <c r="B345" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>virginiacatlover1987</t>
+        </is>
+      </c>
+      <c r="B346" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>pebb.le_</t>
+        </is>
+      </c>
+      <c r="B347" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>stetyka</t>
+        </is>
+      </c>
+      <c r="B348" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>blemo.sumoe</t>
+        </is>
+      </c>
+      <c r="B349" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>frauke_wetzel</t>
+        </is>
+      </c>
+      <c r="B350" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>jawnjonse</t>
+        </is>
+      </c>
+      <c r="B351" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>vcuqadmissions</t>
+        </is>
+      </c>
+      <c r="B352" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>djblade57</t>
+        </is>
+      </c>
+      <c r="B353" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>coen.patel</t>
+        </is>
+      </c>
+      <c r="B354" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>charity_is_love83</t>
+        </is>
+      </c>
+      <c r="B355" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>recruitwithkenedy</t>
+        </is>
+      </c>
+      <c r="B356" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>mareeacardeenus</t>
+        </is>
+      </c>
+      <c r="B357" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>babyydianne24</t>
+        </is>
+      </c>
+      <c r="B358" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>bradford.pearce</t>
+        </is>
+      </c>
+      <c r="B359" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>saffahniazi</t>
+        </is>
+      </c>
+      <c r="B360" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>c_h_e_l_s_e_a_._a</t>
+        </is>
+      </c>
+      <c r="B361" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>have_u_cina</t>
+        </is>
+      </c>
+      <c r="B362" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>shivanigans_</t>
+        </is>
+      </c>
+      <c r="B363" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>jooshfoe</t>
+        </is>
+      </c>
+      <c r="B364" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>_.yuluvvv.n</t>
+        </is>
+      </c>
+      <c r="B365" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>mindless_l0ki</t>
+        </is>
+      </c>
+      <c r="B366" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>sarahwhite_</t>
+        </is>
+      </c>
+      <c r="B367" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>sswatvcu</t>
+        </is>
+      </c>
+      <c r="B368" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>christianmotorsva</t>
+        </is>
+      </c>
+      <c r="B369" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>limilltarz4limilltarz4</t>
+        </is>
+      </c>
+      <c r="B370" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>wonton.noodle.soup</t>
+        </is>
+      </c>
+      <c r="B371" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>aparker98</t>
+        </is>
+      </c>
+      <c r="B372" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>alca.pon.165470</t>
+        </is>
+      </c>
+      <c r="B373" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>1200wm</t>
+        </is>
+      </c>
+      <c r="B374" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>lesly_turcios_h</t>
+        </is>
+      </c>
+      <c r="B375" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>allyyykelso</t>
+        </is>
+      </c>
+      <c r="B376" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>m_stagram0721</t>
+        </is>
+      </c>
+      <c r="B377" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>abduirjeh82</t>
+        </is>
+      </c>
+      <c r="B378" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>estarkston</t>
+        </is>
+      </c>
+      <c r="B379" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>tati_m_13</t>
+        </is>
+      </c>
+      <c r="B380" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>kurrito_burrito</t>
+        </is>
+      </c>
+      <c r="B381" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>sarhadi__m</t>
+        </is>
+      </c>
+      <c r="B382" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>siftipanesar</t>
+        </is>
+      </c>
+      <c r="B383" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>counselor_court</t>
+        </is>
+      </c>
+      <c r="B384" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>nyrekn70</t>
+        </is>
+      </c>
+      <c r="B385" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>ritawynne4</t>
+        </is>
+      </c>
+      <c r="B386" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>crystlbree</t>
+        </is>
+      </c>
+      <c r="B387" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>jay_grinds_247</t>
+        </is>
+      </c>
+      <c r="B388" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>allysiab</t>
+        </is>
+      </c>
+      <c r="B389" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>shawkatss</t>
+        </is>
+      </c>
+      <c r="B390" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>vcusummer</t>
+        </is>
+      </c>
+      <c r="B391" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>sarah_phillips_12</t>
+        </is>
+      </c>
+      <c r="B392" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>01rush.jet</t>
+        </is>
+      </c>
+      <c r="B393" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>andreaadw</t>
+        </is>
+      </c>
+      <c r="B394" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>afterfc2022</t>
+        </is>
+      </c>
+      <c r="B395" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>tblatt1700</t>
+        </is>
+      </c>
+      <c r="B396" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>zanadieu</t>
+        </is>
+      </c>
+      <c r="B397" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>core_sag</t>
+        </is>
+      </c>
+      <c r="B398" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>sva.vcu</t>
+        </is>
+      </c>
+      <c r="B399" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>vcuinthebooth</t>
+        </is>
+      </c>
+      <c r="B400" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>marylanegilbert</t>
+        </is>
+      </c>
+      <c r="B401" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t>ultra_emma</t>
+        </is>
+      </c>
+      <c r="B402" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t>brian_bgo</t>
+        </is>
+      </c>
+      <c r="B403" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t>jdarrington</t>
+        </is>
+      </c>
+      <c r="B404" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t>texmexguns</t>
+        </is>
+      </c>
+      <c r="B405" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t>mcmom10</t>
+        </is>
+      </c>
+      <c r="B406" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="inlineStr">
+        <is>
+          <t>orion_rune</t>
+        </is>
+      </c>
+      <c r="B407" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="inlineStr">
+        <is>
+          <t>janenewburgh</t>
+        </is>
+      </c>
+      <c r="B408" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="inlineStr">
+        <is>
+          <t>l_lexxiii</t>
+        </is>
+      </c>
+      <c r="B409" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="inlineStr">
+        <is>
+          <t>alexiscbrown_</t>
+        </is>
+      </c>
+      <c r="B410" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="inlineStr">
+        <is>
+          <t>gayathree_ravindran</t>
+        </is>
+      </c>
+      <c r="B411" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="inlineStr">
+        <is>
+          <t>miltonminns</t>
+        </is>
+      </c>
+      <c r="B412" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="inlineStr">
+        <is>
+          <t>alix_the_hunter</t>
+        </is>
+      </c>
+      <c r="B413" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="inlineStr">
+        <is>
+          <t>treetimeadventures</t>
+        </is>
+      </c>
+      <c r="B414" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="inlineStr">
+        <is>
+          <t>sophia.james.520</t>
+        </is>
+      </c>
+      <c r="B415" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="inlineStr">
+        <is>
+          <t>__j.b.__2.3.__</t>
+        </is>
+      </c>
+      <c r="B416" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="inlineStr">
+        <is>
+          <t>shanjhitha.dance</t>
+        </is>
+      </c>
+      <c r="B417" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="inlineStr">
+        <is>
+          <t>bewillene</t>
+        </is>
+      </c>
+      <c r="B418" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="inlineStr">
+        <is>
+          <t>itzf__h</t>
+        </is>
+      </c>
+      <c r="B419" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="inlineStr">
+        <is>
+          <t>mrs.demascio.esl</t>
+        </is>
+      </c>
+      <c r="B420" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="inlineStr">
+        <is>
+          <t>nitin.kanuri</t>
+        </is>
+      </c>
+      <c r="B421" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="inlineStr">
+        <is>
+          <t>cateingrassia</t>
+        </is>
+      </c>
+      <c r="B422" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="inlineStr">
+        <is>
+          <t>rfmguild</t>
+        </is>
+      </c>
+      <c r="B423" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="inlineStr">
+        <is>
+          <t>ric_mrc</t>
+        </is>
+      </c>
+      <c r="B424" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="inlineStr">
+        <is>
+          <t>tlewis4402</t>
+        </is>
+      </c>
+      <c r="B425" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="inlineStr">
+        <is>
+          <t>pipinkj</t>
+        </is>
+      </c>
+      <c r="B426" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="inlineStr">
+        <is>
+          <t>2goodman</t>
+        </is>
+      </c>
+      <c r="B427" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="inlineStr">
+        <is>
+          <t>katarinake_22</t>
+        </is>
+      </c>
+      <c r="B428" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="inlineStr">
+        <is>
+          <t>skyethurston</t>
+        </is>
+      </c>
+      <c r="B429" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="inlineStr">
+        <is>
+          <t>its._veronicaaaa</t>
+        </is>
+      </c>
+      <c r="B430" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="inlineStr">
+        <is>
+          <t>akanksha_k_____</t>
+        </is>
+      </c>
+      <c r="B431" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="inlineStr">
+        <is>
+          <t>amack1942</t>
+        </is>
+      </c>
+      <c r="B432" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="inlineStr">
+        <is>
+          <t>vcutrio_sss</t>
+        </is>
+      </c>
+      <c r="B433" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="inlineStr">
+        <is>
+          <t>erikazuniga126</t>
+        </is>
+      </c>
+      <c r="B434" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="inlineStr">
+        <is>
+          <t>tlking8486</t>
+        </is>
+      </c>
+      <c r="B435" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="inlineStr">
+        <is>
+          <t>webb_resourceful</t>
+        </is>
+      </c>
+      <c r="B436" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="inlineStr">
+        <is>
+          <t>lexi.dortch</t>
+        </is>
+      </c>
+      <c r="B437" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="inlineStr">
+        <is>
+          <t>smol.jenibean</t>
+        </is>
+      </c>
+      <c r="B438" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="inlineStr">
+        <is>
+          <t>uniquely_soulful</t>
+        </is>
+      </c>
+      <c r="B439" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="inlineStr">
+        <is>
+          <t>ohthesixofus</t>
+        </is>
+      </c>
+      <c r="B440" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="inlineStr">
+        <is>
+          <t>emilylittreal</t>
+        </is>
+      </c>
+      <c r="B441" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="inlineStr">
+        <is>
+          <t>vanesaromerro</t>
+        </is>
+      </c>
+      <c r="B442" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="inlineStr">
+        <is>
+          <t>lacy.melville</t>
+        </is>
+      </c>
+      <c r="B443" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="inlineStr">
+        <is>
+          <t>nuriaholliday</t>
+        </is>
+      </c>
+      <c r="B444" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="inlineStr">
+        <is>
+          <t>jen_shepherd10</t>
+        </is>
+      </c>
+      <c r="B445" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="inlineStr">
+        <is>
+          <t>qc.746</t>
+        </is>
+      </c>
+      <c r="B446" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="inlineStr">
+        <is>
+          <t>avawiggins06</t>
+        </is>
+      </c>
+      <c r="B447" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="inlineStr">
+        <is>
+          <t>afzali_madina</t>
+        </is>
+      </c>
+      <c r="B448" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="inlineStr">
+        <is>
+          <t>wasted.in.engineering</t>
+        </is>
+      </c>
+      <c r="B449" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="inlineStr">
+        <is>
+          <t>rayne.shy</t>
+        </is>
+      </c>
+      <c r="B450" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="inlineStr">
+        <is>
+          <t>speedchampnila</t>
+        </is>
+      </c>
+      <c r="B451" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="inlineStr">
+        <is>
+          <t>mylindamoore1842</t>
+        </is>
+      </c>
+      <c r="B452" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="inlineStr">
+        <is>
+          <t>normie333</t>
+        </is>
+      </c>
+      <c r="B453" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="inlineStr">
+        <is>
+          <t>cathipogo</t>
+        </is>
+      </c>
+      <c r="B454" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="inlineStr">
+        <is>
+          <t>msamim1</t>
+        </is>
+      </c>
+      <c r="B455" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="inlineStr">
+        <is>
+          <t>madisyn_2023</t>
+        </is>
+      </c>
+      <c r="B456" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="inlineStr">
+        <is>
+          <t>graciemrob</t>
+        </is>
+      </c>
+      <c r="B457" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="inlineStr">
+        <is>
+          <t>er.pramittpatil</t>
+        </is>
+      </c>
+      <c r="B458" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="inlineStr">
+        <is>
+          <t>vcu_arc</t>
+        </is>
+      </c>
+      <c r="B459" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="inlineStr">
+        <is>
+          <t>meagan_doan</t>
+        </is>
+      </c>
+      <c r="B460" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="inlineStr">
+        <is>
+          <t>juliemnichols</t>
+        </is>
+      </c>
+      <c r="B461" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="inlineStr">
+        <is>
+          <t>jmucs</t>
+        </is>
+      </c>
+      <c r="B462" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="inlineStr">
+        <is>
+          <t>mpongratz1</t>
+        </is>
+      </c>
+      <c r="B463" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="inlineStr">
+        <is>
+          <t>emilio_machuca_</t>
+        </is>
+      </c>
+      <c r="B464" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="inlineStr">
+        <is>
+          <t>katebillkirkpatrick</t>
+        </is>
+      </c>
+      <c r="B465" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="inlineStr">
+        <is>
+          <t>divrchk</t>
+        </is>
+      </c>
+      <c r="B466" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="inlineStr">
+        <is>
+          <t>fabixfiliaggi</t>
+        </is>
+      </c>
+      <c r="B467" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="inlineStr">
+        <is>
+          <t>emilyseemar</t>
+        </is>
+      </c>
+      <c r="B468" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="inlineStr">
+        <is>
+          <t>smerikadahal</t>
+        </is>
+      </c>
+      <c r="B469" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="inlineStr">
+        <is>
+          <t>vcubaltimoremetrochapter</t>
+        </is>
+      </c>
+      <c r="B470" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="inlineStr">
+        <is>
+          <t>missbenitez</t>
+        </is>
+      </c>
+      <c r="B471" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="inlineStr">
+        <is>
+          <t>reinely.jav</t>
+        </is>
+      </c>
+      <c r="B472" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="inlineStr">
+        <is>
+          <t>joleigh.moyers</t>
+        </is>
+      </c>
+      <c r="B473" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="inlineStr">
+        <is>
+          <t>annie__dwyer</t>
+        </is>
+      </c>
+      <c r="B474" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="inlineStr">
+        <is>
+          <t>hcpss_ccr</t>
+        </is>
+      </c>
+      <c r="B475" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="inlineStr">
+        <is>
+          <t>sofie.early344</t>
+        </is>
+      </c>
+      <c r="B476" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="inlineStr">
+        <is>
+          <t>allisoncoyne_</t>
+        </is>
+      </c>
+      <c r="B477" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="inlineStr">
+        <is>
+          <t>jummyshugaa</t>
+        </is>
+      </c>
+      <c r="B478" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="inlineStr">
+        <is>
+          <t>dneurolab_vcu</t>
+        </is>
+      </c>
+      <c r="B479" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="inlineStr">
+        <is>
+          <t>jellypackedstudies</t>
+        </is>
+      </c>
+      <c r="B480" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="inlineStr">
+        <is>
+          <t>ms.kekebaybeh</t>
+        </is>
+      </c>
+      <c r="B481" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="inlineStr">
+        <is>
+          <t>beckyyzhengg</t>
+        </is>
+      </c>
+      <c r="B482" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="inlineStr">
+        <is>
+          <t>mglerum</t>
+        </is>
+      </c>
+      <c r="B483" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="inlineStr">
+        <is>
+          <t>ceo.rayne</t>
+        </is>
+      </c>
+      <c r="B484" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="inlineStr">
+        <is>
+          <t>jenny.sympson.york</t>
+        </is>
+      </c>
+      <c r="B485" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="inlineStr">
+        <is>
+          <t>lgbtqfutureeducatorsatvcu</t>
+        </is>
+      </c>
+      <c r="B486" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="inlineStr">
+        <is>
+          <t>bqueen1300</t>
+        </is>
+      </c>
+      <c r="B487" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="inlineStr">
+        <is>
+          <t>markcus.888</t>
+        </is>
+      </c>
+      <c r="B488" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="inlineStr">
+        <is>
+          <t>vcu_shift</t>
+        </is>
+      </c>
+      <c r="B489" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="inlineStr">
+        <is>
+          <t>peanut_butter_and_jilly22</t>
+        </is>
+      </c>
+      <c r="B490" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="inlineStr">
+        <is>
+          <t>ayameshari</t>
+        </is>
+      </c>
+      <c r="B491" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="inlineStr">
+        <is>
+          <t>taximum</t>
+        </is>
+      </c>
+      <c r="B492" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="inlineStr">
+        <is>
+          <t>terrii._.berrii</t>
+        </is>
+      </c>
+      <c r="B493" t="b">
         <v>0</v>
       </c>
     </row>
